--- a/outputs-HGR-r202-archive/g__Ruminococcus_D_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Ruminococcus_D_train.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,26 +888,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_1.fasta</t>
+          <t>label_21673_4_22_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9201681160537156</v>
+        <v>0.8251195932812629</v>
       </c>
       <c r="C13" t="n">
-        <v>8.07748184330424e-14</v>
+        <v>8.434769157503789e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07406927601223995</v>
+        <v>0.1195501151769725</v>
       </c>
       <c r="E13" t="n">
-        <v>2.954753546400511e-05</v>
+        <v>0.0211067716424547</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00573306039849969</v>
+        <v>0.03422351989922559</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9201681160537156</v>
+        <v>0.8251195932812629</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -918,146 +918,146 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_10.fasta</t>
+          <t>label_21673_4_22_28.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8785889431922449</v>
+        <v>0.07524842612119084</v>
       </c>
       <c r="C14" t="n">
-        <v>3.899244572858529e-14</v>
+        <v>2.220311271952433e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1194029404831154</v>
+        <v>0.006819241145398261</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001430136728088002</v>
+        <v>0.9134856356485073</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005779795965128021</v>
+        <v>0.004446697084881406</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8785889431922449</v>
+        <v>0.9134856356485073</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539835</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_15.fasta</t>
+          <t>label_21673_4_22_30.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7371828474019817</v>
+        <v>0.2514444266125358</v>
       </c>
       <c r="C15" t="n">
-        <v>4.372952414492208e-14</v>
+        <v>2.365109402928184e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.261752086719816</v>
+        <v>0.7218752264709516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001687952633488376</v>
+        <v>0.00041436090569946</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0008962706148096544</v>
+        <v>0.02626598601078957</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7371828474019817</v>
+        <v>0.7218752264709516</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_20.fasta</t>
+          <t>label_21673_4_22_31.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5223905278011097</v>
+        <v>0.2939435853982427</v>
       </c>
       <c r="C16" t="n">
-        <v>3.556135487277152e-14</v>
+        <v>5.492934649469593e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04351400246234126</v>
+        <v>0.3785480664010491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4323693761548741</v>
+        <v>0.2807360896398982</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001726093581639411</v>
+        <v>0.04677225856075517</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5223905278011097</v>
+        <v>0.3785480664010491</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_7.fasta</t>
+          <t>label_21673_4_22_35.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7659102364050098</v>
+        <v>0.04674646026120813</v>
       </c>
       <c r="C17" t="n">
-        <v>5.232220841728392e-14</v>
+        <v>2.226848547767557e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2332394482805036</v>
+        <v>0.9064887395229189</v>
       </c>
       <c r="E17" t="n">
-        <v>3.581763834528368e-05</v>
+        <v>0.02577739164778948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008144976760891581</v>
+        <v>0.02098740856806126</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7659102364050098</v>
+        <v>0.9064887395229189</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_0.fasta</t>
+          <t>label_21673_4_22_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8251195932812629</v>
+        <v>0.7414529886864584</v>
       </c>
       <c r="C18" t="n">
-        <v>8.434769157503789e-14</v>
+        <v>4.039668911374023e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1195501151769725</v>
+        <v>0.2426139235920152</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0211067716424547</v>
+        <v>0.01478418626401071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03422351989922559</v>
+        <v>0.001148901457111515</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8251195932812629</v>
+        <v>0.7414529886864584</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1068,206 +1068,206 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_28.fasta</t>
+          <t>label_21673_4_22_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07524842612119084</v>
+        <v>0.5744256431806863</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220311271952433e-14</v>
+        <v>8.301555016005123e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006819241145398261</v>
+        <v>0.1648443421367756</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9134856356485073</v>
+        <v>0.2606658621795495</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004446697084881406</v>
+        <v>6.415250290546729e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9134856356485073</v>
+        <v>0.5744256431806863</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539835</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_30.fasta</t>
+          <t>label_21673_4_22_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2514444266125358</v>
+        <v>0.6311574421969858</v>
       </c>
       <c r="C20" t="n">
-        <v>2.365109402928184e-14</v>
+        <v>1.518551394046873e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7218752264709516</v>
+        <v>0.2362262859844812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00041436090569946</v>
+        <v>0.1221118274255968</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02626598601078957</v>
+        <v>0.01050444439278416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7218752264709516</v>
+        <v>0.6311574421969858</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_31.fasta</t>
+          <t>label_21673_4_22_17.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2939435853982427</v>
+        <v>0.5474362046759703</v>
       </c>
       <c r="C21" t="n">
-        <v>5.492934649469593e-14</v>
+        <v>1.669385127490571e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3785480664010491</v>
+        <v>0.3688896035341693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2807360896398982</v>
+        <v>0.06790529036722229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04677225856075517</v>
+        <v>0.015768901422471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3785480664010491</v>
+        <v>0.5474362046759703</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_35.fasta</t>
+          <t>label_21673_4_22_22.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04674646026120813</v>
+        <v>0.5686128176111754</v>
       </c>
       <c r="C22" t="n">
-        <v>2.226848547767557e-14</v>
+        <v>6.261627091140112e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9064887395229189</v>
+        <v>0.4271478394347472</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02577739164778948</v>
+        <v>0.00255767062771414</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02098740856806126</v>
+        <v>0.001681672326300626</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9064887395229189</v>
+        <v>0.5686128176111754</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_11.fasta</t>
+          <t>label_21673_4_22_23.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7414529886864584</v>
+        <v>0.2079050417972623</v>
       </c>
       <c r="C23" t="n">
-        <v>4.039668911374023e-13</v>
+        <v>2.220138435307224e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2426139235920152</v>
+        <v>0.7917012447771301</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01478418626401071</v>
+        <v>0.0002662961014910228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001148901457111515</v>
+        <v>0.0001274173240944774</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7414529886864584</v>
+        <v>0.7917012447771301</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_13.fasta</t>
+          <t>label_21673_4_22_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5744256431806863</v>
+        <v>0.4068905676349843</v>
       </c>
       <c r="C24" t="n">
-        <v>8.301555016005123e-14</v>
+        <v>2.920923692681873e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1648443421367756</v>
+        <v>0.588547025242468</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2606658621795495</v>
+        <v>0.0001471604926233323</v>
       </c>
       <c r="F24" t="n">
-        <v>6.415250290546729e-05</v>
+        <v>0.00441524662989505</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5744256431806863</v>
+        <v>0.588547025242468</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_16.fasta</t>
+          <t>label_21673_4_22_2.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6311574421969858</v>
+        <v>0.8981409864325312</v>
       </c>
       <c r="C25" t="n">
-        <v>1.518551394046873e-13</v>
+        <v>2.844455753831092e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2362262859844812</v>
+        <v>0.09962670678705239</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1221118274255968</v>
+        <v>1.189179779314254e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01050444439278416</v>
+        <v>0.00223111760060879</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6311574421969858</v>
+        <v>0.8981409864325312</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1278,86 +1278,86 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_17.fasta</t>
+          <t>label_21673_4_22_26.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5474362046759703</v>
+        <v>0.1905812878778338</v>
       </c>
       <c r="C26" t="n">
-        <v>1.669385127490571e-13</v>
+        <v>2.322105733085599e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3688896035341693</v>
+        <v>0.8038755584879619</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06790529036722229</v>
+        <v>0.002400549981131476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.015768901422471</v>
+        <v>0.003142603653049471</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5474362046759703</v>
+        <v>0.8038755584879619</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_22.fasta</t>
+          <t>label_21673_4_22_27.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5686128176111754</v>
+        <v>0.4637736018803003</v>
       </c>
       <c r="C27" t="n">
-        <v>6.261627091140112e-14</v>
+        <v>5.151207898232403e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4271478394347472</v>
+        <v>0.4659572374717687</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00255767062771414</v>
+        <v>0.06653672053124911</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001681672326300626</v>
+        <v>0.003732440116630432</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5686128176111754</v>
+        <v>0.4659572374717687</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_23.fasta</t>
+          <t>label_21673_4_22_32.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2079050417972623</v>
+        <v>0.06325664543017438</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220138435307224e-14</v>
+        <v>1.368090912929568e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7917012447771301</v>
+        <v>0.8102453176290987</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002662961014910228</v>
+        <v>0.0564852178268002</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001274173240944774</v>
+        <v>0.07001281911378995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7917012447771301</v>
+        <v>0.8102453176290987</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_19.fasta</t>
+          <t>label_21673_4_22_33.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4068905676349843</v>
+        <v>0.0002332583916257322</v>
       </c>
       <c r="C29" t="n">
-        <v>2.920923692681873e-14</v>
+        <v>2.219346225504563e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.588547025242468</v>
+        <v>0.9693702373984168</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001471604926233323</v>
+        <v>0.001176851449772201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00441524662989505</v>
+        <v>0.02921965276016314</v>
       </c>
       <c r="G29" t="n">
-        <v>0.588547025242468</v>
+        <v>0.9693702373984168</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1398,176 +1398,176 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_2.fasta</t>
+          <t>label_21673_4_22_34.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8981409864325312</v>
+        <v>0.22354008421982</v>
       </c>
       <c r="C30" t="n">
-        <v>2.844455753831092e-14</v>
+        <v>9.733741181116495e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09962670678705239</v>
+        <v>0.6688055460395957</v>
       </c>
       <c r="E30" t="n">
-        <v>1.189179779314254e-06</v>
+        <v>0.08917010079745299</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00223111760060879</v>
+        <v>0.018484268943034</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8981409864325312</v>
+        <v>0.6688055460395957</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_26.fasta</t>
+          <t>label_21673_4_22_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1905812878778338</v>
+        <v>0.9297761429488584</v>
       </c>
       <c r="C31" t="n">
-        <v>2.322105733085599e-14</v>
+        <v>2.614418964155767e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8038755584879619</v>
+        <v>0.05919977079696372</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002400549981131476</v>
+        <v>7.132279759530664e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003142603653049471</v>
+        <v>0.01101695397439232</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8038755584879619</v>
+        <v>0.9297761429488584</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_27.fasta</t>
+          <t>label_21673_4_22_9.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4637736018803003</v>
+        <v>0.751529898483552</v>
       </c>
       <c r="C32" t="n">
-        <v>5.151207898232403e-14</v>
+        <v>6.084839276928431e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4659572374717687</v>
+        <v>0.2170975154325654</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06653672053124911</v>
+        <v>1.550589172370366e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003732440116630432</v>
+        <v>0.03135708019209812</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4659572374717687</v>
+        <v>0.751529898483552</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_32.fasta</t>
+          <t>label_21673_4_22_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06325664543017438</v>
+        <v>0.5038279698875961</v>
       </c>
       <c r="C33" t="n">
-        <v>1.368090912929568e-13</v>
+        <v>1.051700983988217e-13</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8102453176290987</v>
+        <v>0.07467856201235779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0564852178268002</v>
+        <v>0.4214934680998358</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07001281911378995</v>
+        <v>1.051700983988216e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8102453176290987</v>
+        <v>0.5038279698875961</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_33.fasta</t>
+          <t>label_21673_4_22_14.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0002332583916257322</v>
+        <v>0.7803459046954643</v>
       </c>
       <c r="C34" t="n">
-        <v>2.219346225504563e-14</v>
+        <v>4.992810666308443e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9693702373984168</v>
+        <v>0.2183934284264071</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001176851449772201</v>
+        <v>0.001260666878028681</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02921965276016314</v>
+        <v>4.992810666308438e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9693702373984168</v>
+        <v>0.7803459046954643</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_34.fasta</t>
+          <t>label_21673_4_22_18.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.22354008421982</v>
+        <v>0.3641643160590148</v>
       </c>
       <c r="C35" t="n">
-        <v>9.733741181116495e-14</v>
+        <v>4.653270541721046e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6688055460395957</v>
+        <v>0.6354747724246064</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08917010079745299</v>
+        <v>0.0003609115162856702</v>
       </c>
       <c r="F35" t="n">
-        <v>0.018484268943034</v>
+        <v>4.653270541721044e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6688055460395957</v>
+        <v>0.6354747724246064</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,56 +1578,56 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_4.fasta</t>
+          <t>label_21673_4_22_21.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9297761429488584</v>
+        <v>0.1965455333267984</v>
       </c>
       <c r="C36" t="n">
-        <v>2.614418964155767e-14</v>
+        <v>2.220132455348622e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05919977079696372</v>
+        <v>0.8030488821362821</v>
       </c>
       <c r="E36" t="n">
-        <v>7.132279759530664e-06</v>
+        <v>0.0004055845368749134</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01101695397439232</v>
+        <v>2.220132455348622e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9297761429488584</v>
+        <v>0.8030488821362821</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_9.fasta</t>
+          <t>label_21673_4_22_24.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.751529898483552</v>
+        <v>0.5987922472349997</v>
       </c>
       <c r="C37" t="n">
-        <v>6.084839276928431e-14</v>
+        <v>8.680267845644243e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2170975154325654</v>
+        <v>0.37994055827678</v>
       </c>
       <c r="E37" t="n">
-        <v>1.550589172370366e-05</v>
+        <v>0.02126719448804676</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03135708019209812</v>
+        <v>8.680267845644243e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.751529898483552</v>
+        <v>0.5987922472349997</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1638,146 +1638,146 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_12.fasta</t>
+          <t>label_21673_4_22_25.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5038279698875961</v>
+        <v>0.2064993900127823</v>
       </c>
       <c r="C38" t="n">
-        <v>1.051700983988217e-13</v>
+        <v>2.220136047003935e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07467856201235779</v>
+        <v>0.7928843573354629</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4214934680998358</v>
+        <v>0.0006162526517102204</v>
       </c>
       <c r="F38" t="n">
-        <v>1.051700983988216e-13</v>
+        <v>2.220136047003935e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5038279698875961</v>
+        <v>0.7928843573354629</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_14.fasta</t>
+          <t>label_21673_4_22_29.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7803459046954643</v>
+        <v>0.08527493105368346</v>
       </c>
       <c r="C39" t="n">
-        <v>4.992810666308443e-14</v>
+        <v>2.220011056889875e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2183934284264071</v>
+        <v>0.9134672357351856</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001260666878028681</v>
+        <v>0.001257833211086592</v>
       </c>
       <c r="F39" t="n">
-        <v>4.992810666308438e-14</v>
+        <v>2.220011056889875e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7803459046954643</v>
+        <v>0.9134672357351856</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_18.fasta</t>
+          <t>label_21673_4_22_3.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3641643160590148</v>
+        <v>0.9054603859179621</v>
       </c>
       <c r="C40" t="n">
-        <v>4.653270541721046e-14</v>
+        <v>1.031302043113964e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6354747724246064</v>
+        <v>0.09426860531132722</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003609115162856702</v>
+        <v>0.0002710087705042589</v>
       </c>
       <c r="F40" t="n">
-        <v>4.653270541721044e-14</v>
+        <v>1.031302043113963e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6354747724246064</v>
+        <v>0.9054603859179621</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_21.fasta</t>
+          <t>label_21673_4_22_5.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1965455333267984</v>
+        <v>0.8836823397674061</v>
       </c>
       <c r="C41" t="n">
-        <v>2.220132455348622e-14</v>
+        <v>1.697912729928006e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8030488821362821</v>
+        <v>0.08877230611852212</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0004055845368749134</v>
+        <v>0.02754535411373213</v>
       </c>
       <c r="F41" t="n">
-        <v>2.220132455348622e-14</v>
+        <v>1.697912729928006e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8030488821362821</v>
+        <v>0.8836823397674061</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_24.fasta</t>
+          <t>label_21673_4_22_6.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5987922472349997</v>
+        <v>0.8179683054320233</v>
       </c>
       <c r="C42" t="n">
-        <v>8.680267845644243e-14</v>
+        <v>1.692572263039101e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>0.37994055827678</v>
+        <v>0.1814770854868468</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02126719448804676</v>
+        <v>0.0005546090807913408</v>
       </c>
       <c r="F42" t="n">
-        <v>8.680267845644243e-14</v>
+        <v>1.692572263039099e-13</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5987922472349997</v>
+        <v>0.8179683054320233</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1788,178 +1788,28 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_22_25.fasta</t>
+          <t>label_21673_4_22_8.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2064993900127823</v>
+        <v>0.7519724073438555</v>
       </c>
       <c r="C43" t="n">
-        <v>2.220136047003935e-14</v>
+        <v>6.146999098797156e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7928843573354629</v>
+        <v>0.2478707237293143</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006162526517102204</v>
+        <v>0.0001568689267071585</v>
       </c>
       <c r="F43" t="n">
-        <v>2.220136047003935e-14</v>
+        <v>6.146999098797171e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7928843573354629</v>
+        <v>0.7519724073438555</v>
       </c>
       <c r="H43" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_22_29.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.08527493105368346</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.220011056889875e-14</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9134672357351856</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.001257833211086592</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.220011056889875e-14</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.9134672357351856</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_22_3.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.9054603859179621</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.031302043113964e-13</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.09426860531132722</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.0002710087705042589</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.031302043113963e-13</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.9054603859179621</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D bicirculans</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_22_5.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.8836823397674061</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.697912729928006e-13</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.08877230611852212</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.02754535411373213</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.697912729928006e-13</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.8836823397674061</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D bicirculans</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_22_6.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.8179683054320233</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.692572263039101e-13</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.1814770854868468</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0005546090807913408</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.692572263039099e-13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.8179683054320233</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D bicirculans</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_22_8.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.7519724073438555</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.146999098797156e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2478707237293143</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0001568689267071585</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6.146999098797171e-14</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.7519724073438555</v>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D bicirculans</t>
         </is>
@@ -1976,7 +1826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,26 +2029,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_1.fasta</t>
+          <t>label_UMGS283_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.009641631355466e-05</v>
+        <v>0.003631822743280071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9976909835786985</v>
+        <v>0.9938506258458373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009069560860047832</v>
+        <v>0.002256112316008149</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001341957091577341</v>
+        <v>7.737704881037531e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>6.827405987598824e-09</v>
+        <v>0.000184062046064215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9976909835786985</v>
+        <v>0.9938506258458373</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2209,26 +2059,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_16.fasta</t>
+          <t>label_UMGS283_14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.29263266184406e-05</v>
+        <v>0.0003222056871946577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9923187187881137</v>
+        <v>0.9962243643367772</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003570921225343862</v>
+        <v>0.001517540615876014</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004067428792708316</v>
+        <v>0.001933367592972432</v>
       </c>
       <c r="F8" t="n">
-        <v>4.867215581642047e-09</v>
+        <v>2.521767179854116e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9923187187881137</v>
+        <v>0.9962243643367772</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2239,26 +2089,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_17.fasta</t>
+          <t>label_UMGS283_25.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000475795710723122</v>
+        <v>0.001122818013946094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9947952195840518</v>
+        <v>0.782384149648139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004429758070004858</v>
+        <v>0.2163842471273227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002929568943423629</v>
+        <v>0.0001036720739897887</v>
       </c>
       <c r="F9" t="n">
-        <v>6.269740877870392e-06</v>
+        <v>5.113136602408869e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9947952195840518</v>
+        <v>0.782384149648139</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2269,26 +2119,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_19.fasta</t>
+          <t>label_UMGS283_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004238438474910395</v>
+        <v>0.0004255371437940669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9885362841074058</v>
+        <v>0.9960353635861472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01057315816154095</v>
+        <v>0.0007876189964014307</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000455003565321237</v>
+        <v>0.002744756451101967</v>
       </c>
       <c r="F10" t="n">
-        <v>1.171031824108131e-05</v>
+        <v>6.723822555308542e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9885362841074058</v>
+        <v>0.9960353635861472</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2299,26 +2149,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_24.fasta</t>
+          <t>label_UMGS283_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000562288721177222</v>
+        <v>0.0001459107405833021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9422026118613942</v>
+        <v>0.9916617727272449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05643843517972002</v>
+        <v>0.0008126297229236033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007673210913366046</v>
+        <v>0.007379026555895091</v>
       </c>
       <c r="F11" t="n">
-        <v>2.934314637202175e-05</v>
+        <v>6.602533532418477e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9422026118613942</v>
+        <v>0.9916617727272449</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2329,26 +2179,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_3.fasta</t>
+          <t>label_UMGS283_20.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.31326288285763e-05</v>
+        <v>0.0002265196320449462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9959070009439221</v>
+        <v>0.9854827096098685</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001020337452610783</v>
+        <v>0.001690563212945927</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003059525778922021</v>
+        <v>0.01260020752796328</v>
       </c>
       <c r="F12" t="n">
-        <v>3.195716654497905e-09</v>
+        <v>1.717739101901723e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9959070009439221</v>
+        <v>0.9854827096098685</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2359,26 +2209,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_8.fasta</t>
+          <t>label_UMGS283_23.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.463419061135404e-05</v>
+        <v>0.0003455589281258396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9945213948588723</v>
+        <v>0.5475377191089928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001462175102636384</v>
+        <v>0.0002924799688277552</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004001793366017338</v>
+        <v>0.4518242417583007</v>
       </c>
       <c r="F13" t="n">
-        <v>2.481862708449994e-09</v>
+        <v>2.357529291673666e-10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9945213948588723</v>
+        <v>0.5475377191089928</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2389,26 +2239,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_12.fasta</t>
+          <t>label_UMGS283_5.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003631822743280071</v>
+        <v>4.076784989917439e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9938506258458373</v>
+        <v>0.9745508339287995</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002256112316008149</v>
+        <v>0.001029749462421297</v>
       </c>
       <c r="E14" t="n">
-        <v>7.737704881037531e-05</v>
+        <v>0.02437864875885799</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000184062046064215</v>
+        <v>2.218954477252125e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9938506258458373</v>
+        <v>0.9745508339287995</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2419,26 +2269,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_14.fasta</t>
+          <t>label_UMGS283_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003222056871946577</v>
+        <v>2.154763168627402e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9962243643367772</v>
+        <v>0.987319783574416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001517540615876014</v>
+        <v>0.0002460956194605279</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001933367592972432</v>
+        <v>0.01243301977158481</v>
       </c>
       <c r="F15" t="n">
-        <v>2.521767179854116e-06</v>
+        <v>8.855582218292047e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9962243643367772</v>
+        <v>0.987319783574416</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2449,26 +2299,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_25.fasta</t>
+          <t>label_UMGS283_11.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001122818013946094</v>
+        <v>4.244864630025105e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.782384149648139</v>
+        <v>0.8940086254095896</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2163842471273227</v>
+        <v>0.1050838881235973</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001036720739897887</v>
+        <v>0.0008130830133778608</v>
       </c>
       <c r="F16" t="n">
-        <v>5.113136602408869e-06</v>
+        <v>5.195480713485615e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.782384149648139</v>
+        <v>0.8940086254095896</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2479,26 +2329,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_7.fasta</t>
+          <t>label_UMGS283_15.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004255371437940669</v>
+        <v>0.01968525819558416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9960353635861472</v>
+        <v>0.9104925379109786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007876189964014307</v>
+        <v>0.01565368163442345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002744756451101967</v>
+        <v>1.386579053310472e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>6.723822555308542e-06</v>
+        <v>0.05415465646848058</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9960353635861472</v>
+        <v>0.9104925379109786</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2509,26 +2359,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_9.fasta</t>
+          <t>label_UMGS283_2.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001459107405833021</v>
+        <v>0.003543626734676404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9916617727272449</v>
+        <v>0.9902061021597824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0008126297229236033</v>
+        <v>0.002839947162486482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007379026555895091</v>
+        <v>2.315642217723762e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>6.602533532418477e-07</v>
+        <v>0.003387167520877413</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9916617727272449</v>
+        <v>0.9902061021597824</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2539,26 +2389,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_20.fasta</t>
+          <t>label_UMGS283_21.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002265196320449462</v>
+        <v>1.343949784531478e-07</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9854827096098685</v>
+        <v>0.9895603275109759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001690563212945927</v>
+        <v>0.002074040264773106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01260020752796328</v>
+        <v>0.008362136518700249</v>
       </c>
       <c r="F19" t="n">
-        <v>1.717739101901723e-11</v>
+        <v>3.361310572435612e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9854827096098685</v>
+        <v>0.9895603275109759</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2569,26 +2419,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_23.fasta</t>
+          <t>label_UMGS283_4.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003455589281258396</v>
+        <v>8.180085171587626e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5475377191089928</v>
+        <v>0.9716135020261165</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002924799688277552</v>
+        <v>0.0002568178718483427</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4518242417583007</v>
+        <v>0.02812932367647519</v>
       </c>
       <c r="F20" t="n">
-        <v>2.357529291673666e-10</v>
+        <v>2.74624708159692e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5475377191089928</v>
+        <v>0.9716135020261165</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2599,26 +2449,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_5.fasta</t>
+          <t>label_UMGS283_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.076784989917439e-05</v>
+        <v>9.946860047568878e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9745508339287995</v>
+        <v>0.994308334510979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001029749462421297</v>
+        <v>0.005465100362734182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02437864875885799</v>
+        <v>0.0001270965257888512</v>
       </c>
       <c r="F21" t="n">
-        <v>2.218954477252125e-14</v>
+        <v>2.219849739297405e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9745508339287995</v>
+        <v>0.994308334510979</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2629,26 +2479,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_0.fasta</t>
+          <t>label_UMGS283_13.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.154763168627402e-07</v>
+        <v>0.001247322717912527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.987319783574416</v>
+        <v>0.989783585051605</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002460956194605279</v>
+        <v>0.008950091579322481</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01243301977158481</v>
+        <v>1.900065113787803e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>8.855582218292047e-07</v>
+        <v>2.219855373155386e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.987319783574416</v>
+        <v>0.989783585051605</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2659,26 +2509,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_11.fasta</t>
+          <t>label_UMGS283_18.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.244864630025105e-05</v>
+        <v>1.784680576269458e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8940086254095896</v>
+        <v>0.9948108636784869</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1050838881235973</v>
+        <v>0.002816983869451282</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008130830133778608</v>
+        <v>0.002370367771463401</v>
       </c>
       <c r="F23" t="n">
-        <v>5.195480713485615e-05</v>
+        <v>2.2202247644742e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8940086254095896</v>
+        <v>0.9948108636784869</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2689,268 +2539,58 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_15.fasta</t>
+          <t>label_UMGS283_22.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01968525819558416</v>
+        <v>0.2464656534527616</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9104925379109786</v>
+        <v>0.3234558055939717</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01565368163442345</v>
+        <v>0.429386085109223</v>
       </c>
       <c r="E24" t="n">
-        <v>1.386579053310472e-05</v>
+        <v>0.000692455843866621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05415465646848058</v>
+        <v>1.769895981915834e-13</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9104925379109786</v>
+        <v>0.429386085109223</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp000434695</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS283_2.fasta</t>
+          <t>label_UMGS283_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.003543626734676404</v>
+        <v>5.039023259539132e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9902061021597824</v>
+        <v>0.9923560682450978</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002839947162486482</v>
+        <v>0.000774505916427329</v>
       </c>
       <c r="E25" t="n">
-        <v>2.315642217723762e-05</v>
+        <v>0.006868921936126685</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003387167520877413</v>
+        <v>2.219892088260884e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9902061021597824</v>
+        <v>0.9923560682450978</v>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_21.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.343949784531478e-07</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9895603275109759</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.002074040264773106</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.008362136518700249</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.361310572435612e-06</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9895603275109759</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_4.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>8.180085171587626e-08</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9716135020261165</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0002568178718483427</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.02812932367647519</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.74624708159692e-07</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9716135020261165</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_10.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>9.946860047568878e-05</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.994308334510979</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.005465100362734182</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0001270965257888512</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.219849739297405e-14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.994308334510979</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_13.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.001247322717912527</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.989783585051605</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.008950091579322481</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.900065113787803e-05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.219855373155386e-14</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.989783585051605</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_18.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.784680576269458e-06</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9948108636784869</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.002816983869451282</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.002370367771463401</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.2202247644742e-14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.9948108636784869</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp000434695</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_22.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.2464656534527616</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.3234558055939717</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.429386085109223</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.000692455843866621</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.769895981915834e-13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.429386085109223</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS283_6.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5.039023259539132e-07</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9923560682450978</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.000774505916427329</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.006868921936126685</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.219892088260884e-14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9923560682450978</v>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D sp000434695</t>
         </is>
@@ -2967,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3500,116 +3140,116 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_100.fasta</t>
+          <t>label_UMGS91_12.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.456757525609888</v>
+        <v>0.05176728266056355</v>
       </c>
       <c r="C18" t="n">
-        <v>3.238454730624852e-14</v>
+        <v>2.219167989543353e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.379088049268663</v>
+        <v>0.9439295880401156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0287271889194115</v>
+        <v>0.001559941129808176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.135427236202005</v>
+        <v>0.002743188169490496</v>
       </c>
       <c r="G18" t="n">
-        <v>0.456757525609888</v>
+        <v>0.9439295880401156</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_101.fasta</t>
+          <t>label_UMGS91_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6252746824842349</v>
+        <v>0.04412490122273171</v>
       </c>
       <c r="C19" t="n">
-        <v>2.400897468663852e-14</v>
+        <v>2.219986109779582e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1690095495311957</v>
+        <v>0.9498455442063564</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003551393181216114</v>
+        <v>0.001789849657148836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2021643748033293</v>
+        <v>0.004239704913740807</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6252746824842349</v>
+        <v>0.9498455442063564</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_103.fasta</t>
+          <t>label_UMGS91_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3962471362578826</v>
+        <v>0.05548112338467567</v>
       </c>
       <c r="C20" t="n">
-        <v>8.161874747394358e-14</v>
+        <v>2.220080088081677e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3752828010328769</v>
+        <v>0.9354880628164519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1996937395460925</v>
+        <v>0.00620455374685329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02877632316306629</v>
+        <v>0.002826260051996879</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3962471362578826</v>
+        <v>0.9354880628164519</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_29.fasta</t>
+          <t>label_UMGS91_22.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04298437486860086</v>
+        <v>0.05344397478756296</v>
       </c>
       <c r="C21" t="n">
-        <v>2.219906759160497e-14</v>
+        <v>2.219324357975421e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.956268146814206</v>
+        <v>0.9434700333525695</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005938056212009623</v>
+        <v>0.0001428781988125292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001536726959699863</v>
+        <v>0.002943113661032809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.956268146814206</v>
+        <v>0.9434700333525695</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3620,26 +3260,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_30.fasta</t>
+          <t>label_UMGS91_25.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1154503726373918</v>
+        <v>0.06157013830263141</v>
       </c>
       <c r="C22" t="n">
-        <v>2.219520693099818e-14</v>
+        <v>2.219087762047543e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8839303418422688</v>
+        <v>0.9340362640388117</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002703747582445334</v>
+        <v>0.0006570859739399765</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0003489107620726654</v>
+        <v>0.00373651168459476</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8839303418422688</v>
+        <v>0.9340362640388117</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3650,26 +3290,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_36.fasta</t>
+          <t>label_UMGS91_33.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02504450775659637</v>
+        <v>0.02540692505574469</v>
       </c>
       <c r="C23" t="n">
-        <v>2.219886045486216e-14</v>
+        <v>2.219762245721637e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9742660991791534</v>
+        <v>0.9707834360634021</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0005141104806702001</v>
+        <v>0.0004914074171884084</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0001752825835578898</v>
+        <v>0.003318231463642507</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9742660991791534</v>
+        <v>0.9707834360634021</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3680,26 +3320,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_41.fasta</t>
+          <t>label_UMGS91_34.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03362966889828594</v>
+        <v>0.04463748526683364</v>
       </c>
       <c r="C24" t="n">
-        <v>2.219945733012893e-14</v>
+        <v>2.219130254864946e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9650641872935569</v>
+        <v>0.9530227425529864</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0009936326362688771</v>
+        <v>0.0003837463174876455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0003125111718660505</v>
+        <v>0.00195602586267011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9650641872935569</v>
+        <v>0.9530227425529864</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3710,26 +3350,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_51.fasta</t>
+          <t>label_UMGS91_39.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03806391060185555</v>
+        <v>0.02773800289221633</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220182824671504e-14</v>
+        <v>2.219610937897534e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9595527553854699</v>
+        <v>0.968588476877337</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002138533154960434</v>
+        <v>0.0004194941381582647</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0002448008576918711</v>
+        <v>0.003254026092266378</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9595527553854699</v>
+        <v>0.968588476877337</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3740,26 +3380,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_6.fasta</t>
+          <t>label_UMGS91_49.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0532203286717235</v>
+        <v>0.1053940938442091</v>
       </c>
       <c r="C26" t="n">
-        <v>2.693563891937777e-14</v>
+        <v>2.219197904263384e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.946306617699033</v>
+        <v>0.8905285523392436</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000244366495947275</v>
+        <v>0.0001646943127188239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0002286871332692184</v>
+        <v>0.003912659503806253</v>
       </c>
       <c r="G26" t="n">
-        <v>0.946306617699033</v>
+        <v>0.8905285523392436</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3770,26 +3410,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_60.fasta</t>
+          <t>label_UMGS91_5.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2111821704380086</v>
+        <v>0.06463722219415927</v>
       </c>
       <c r="C27" t="n">
-        <v>2.637847098049059e-14</v>
+        <v>2.218572883221436e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7661599059684907</v>
+        <v>0.9327870379452766</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02189738048234124</v>
+        <v>0.001118443495622263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0007605431111330328</v>
+        <v>0.001457296364919716</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7661599059684907</v>
+        <v>0.9327870379452766</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3800,26 +3440,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_62.fasta</t>
+          <t>label_UMGS91_52.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08072434694297194</v>
+        <v>0.09491513783466146</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220097819239915e-14</v>
+        <v>2.219022286599595e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9119217134764865</v>
+        <v>0.9000807886967577</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006266745409655413</v>
+        <v>0.0002978398321714673</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001087194170863739</v>
+        <v>0.00470623363638722</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9119217134764865</v>
+        <v>0.9000807886967577</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3830,26 +3470,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_67.fasta</t>
+          <t>label_UMGS91_57.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03814604308324765</v>
+        <v>0.09156565481228769</v>
       </c>
       <c r="C29" t="n">
-        <v>2.220654044664244e-14</v>
+        <v>2.219183147545745e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9494270040687048</v>
+        <v>0.9037469352430666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01212058570106464</v>
+        <v>0.0002503121716823301</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0003063671469605226</v>
+        <v>0.004437097772941246</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9494270040687048</v>
+        <v>0.9037469352430666</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3860,26 +3500,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_68.fasta</t>
+          <t>label_UMGS91_59.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06565723486161128</v>
+        <v>0.08616263496110702</v>
       </c>
       <c r="C30" t="n">
-        <v>2.220398311323428e-14</v>
+        <v>2.219943649183241e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9238076934692958</v>
+        <v>0.9061515028825446</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01002900716799482</v>
+        <v>0.0001319161555530762</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0005060645010758407</v>
+        <v>0.007553946000773027</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9238076934692958</v>
+        <v>0.9061515028825446</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3890,26 +3530,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_71.fasta</t>
+          <t>label_UMGS91_61.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1042897762466915</v>
+        <v>0.09095762489831344</v>
       </c>
       <c r="C31" t="n">
-        <v>2.220346958622071e-14</v>
+        <v>2.219163826194547e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8798656459623038</v>
+        <v>0.9041334878971495</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0134263873344193</v>
+        <v>0.0001372795457326912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002418190456563114</v>
+        <v>0.004771607658782227</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8798656459623038</v>
+        <v>0.9041334878971495</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3920,26 +3560,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_74.fasta</t>
+          <t>label_UMGS91_64.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04547073669816586</v>
+        <v>0.05991358860349386</v>
       </c>
       <c r="C32" t="n">
-        <v>2.220804715761126e-14</v>
+        <v>2.219896223151363e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.941036671978984</v>
+        <v>0.935240049190497</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01312875913115633</v>
+        <v>6.750130125266039e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003638321916715506</v>
+        <v>0.004778860904734324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.941036671978984</v>
+        <v>0.935240049190497</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3950,26 +3590,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_77.fasta</t>
+          <t>label_UMGS91_69.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05685337201299547</v>
+        <v>0.08370232398930212</v>
       </c>
       <c r="C33" t="n">
-        <v>2.221226155396021e-14</v>
+        <v>2.219459051746111e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9252868056262563</v>
+        <v>0.9100884620186461</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01647298530600966</v>
+        <v>0.0001984398264433225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001386837054716353</v>
+        <v>0.006010774165586244</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9252868056262563</v>
+        <v>0.9100884620186461</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3980,26 +3620,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_79.fasta</t>
+          <t>label_UMGS91_72.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06415435938579381</v>
+        <v>0.04171243339909066</v>
       </c>
       <c r="C34" t="n">
-        <v>2.220197144754226e-14</v>
+        <v>2.21944313068275e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9206658978059821</v>
+        <v>0.9538771046567723</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01453818136827158</v>
+        <v>2.252466774547044e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0006415614399303339</v>
+        <v>0.004387937276369254</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9206658978059821</v>
+        <v>0.9538771046567723</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4010,26 +3650,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_83.fasta</t>
+          <t>label_UMGS91_73.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1200649031003242</v>
+        <v>0.05073132600983772</v>
       </c>
       <c r="C35" t="n">
-        <v>2.222388750915251e-14</v>
+        <v>2.21951549826042e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8421446558196843</v>
+        <v>0.9427378399862923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03647067279940195</v>
+        <v>5.379302287239882e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001319768280567189</v>
+        <v>0.006477040980975268</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8421446558196843</v>
+        <v>0.9427378399862923</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4040,26 +3680,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_87.fasta</t>
+          <t>label_UMGS91_8.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2235020940299079</v>
+        <v>0.1076297037181239</v>
       </c>
       <c r="C36" t="n">
-        <v>2.317266745079077e-14</v>
+        <v>2.218815100131162e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7524389820508923</v>
+        <v>0.8882658043012505</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01756020619245302</v>
+        <v>0.001053617976570149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00649871772672366</v>
+        <v>0.003050874004033339</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7524389820508923</v>
+        <v>0.8882658043012505</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4070,26 +3710,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_91.fasta</t>
+          <t>label_UMGS91_82.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1066663215288864</v>
+        <v>0.1603645805489956</v>
       </c>
       <c r="C37" t="n">
-        <v>2.933002164841871e-14</v>
+        <v>2.221742541535873e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8106554129925759</v>
+        <v>0.8226134997936502</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03726448426396459</v>
+        <v>0.0005577570668463677</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04541378121454361</v>
+        <v>0.01646416259048568</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8106554129925759</v>
+        <v>0.8226134997936502</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4100,26 +3740,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_93.fasta</t>
+          <t>label_UMGS91_85.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1728397186872054</v>
+        <v>0.05549986375242523</v>
       </c>
       <c r="C38" t="n">
-        <v>2.49073891649917e-14</v>
+        <v>2.219787634022947e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8021737020147841</v>
+        <v>0.9371263313008416</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01561734101401416</v>
+        <v>2.588542750026936e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009369238283971456</v>
+        <v>0.007347919519210647</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8021737020147841</v>
+        <v>0.9371263313008416</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4130,26 +3770,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_95.fasta</t>
+          <t>label_UMGS91_86.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1187417296940872</v>
+        <v>0.1028350778458515</v>
       </c>
       <c r="C39" t="n">
-        <v>2.778321932440035e-14</v>
+        <v>2.220119999373414e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8418946089773114</v>
+        <v>0.8878631785453955</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03133370306553675</v>
+        <v>3.194245621978194e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008029958263036858</v>
+        <v>0.009269801152511107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8418946089773114</v>
+        <v>0.8878631785453955</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -4160,26 +3800,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_12.fasta</t>
+          <t>label_UMGS91_96.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.05176728266056355</v>
+        <v>0.08987408814486499</v>
       </c>
       <c r="C40" t="n">
-        <v>2.219167989543353e-14</v>
+        <v>2.21888893852724e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9439295880401156</v>
+        <v>0.9057431878297389</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001559941129808176</v>
+        <v>3.263594039744814e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002743188169490496</v>
+        <v>0.004379460431333975</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9439295880401156</v>
+        <v>0.9057431878297389</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -4190,26 +3830,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_19.fasta</t>
+          <t>label_UMGS91_98.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04412490122273171</v>
+        <v>0.02841867466115602</v>
       </c>
       <c r="C41" t="n">
-        <v>2.219986109779582e-14</v>
+        <v>2.223325158180348e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9498455442063564</v>
+        <v>0.9304007854187032</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001789849657148836</v>
+        <v>0.0001678613686001407</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004239704913740807</v>
+        <v>0.04101267855151842</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9498455442063564</v>
+        <v>0.9304007854187032</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4220,26 +3860,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_2.fasta</t>
+          <t>label_UMGS91_0.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.05548112338467567</v>
+        <v>0.1078419579236903</v>
       </c>
       <c r="C42" t="n">
-        <v>2.220080088081677e-14</v>
+        <v>2.219866154591555e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9354880628164519</v>
+        <v>0.8908545206705912</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00620455374685329</v>
+        <v>0.001286885210941764</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002826260051996879</v>
+        <v>1.663619475460277e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9354880628164519</v>
+        <v>0.8908545206705912</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -4250,26 +3890,26 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_22.fasta</t>
+          <t>label_UMGS91_1.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05344397478756296</v>
+        <v>0.03714486879568187</v>
       </c>
       <c r="C43" t="n">
-        <v>2.219324357975421e-14</v>
+        <v>2.219557690865634e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9434700333525695</v>
+        <v>0.9624034498162832</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001428781988125292</v>
+        <v>0.0004495553560542729</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002943113661032809</v>
+        <v>2.126031958224851e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9434700333525695</v>
+        <v>0.9624034498162832</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -4280,26 +3920,26 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_25.fasta</t>
+          <t>label_UMGS91_102.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.06157013830263141</v>
+        <v>0.4057919201903419</v>
       </c>
       <c r="C44" t="n">
-        <v>2.219087762047543e-14</v>
+        <v>2.237993012870149e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9340362640388117</v>
+        <v>0.5453553245336463</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006570859739399765</v>
+        <v>0.002631317988756849</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00373651168459476</v>
+        <v>0.04622143728723258</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9340362640388117</v>
+        <v>0.5453553245336463</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4310,26 +3950,26 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_33.fasta</t>
+          <t>label_UMGS91_13.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02540692505574469</v>
+        <v>0.1037175420657429</v>
       </c>
       <c r="C45" t="n">
-        <v>2.219762245721637e-14</v>
+        <v>2.219260100864684e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9707834360634021</v>
+        <v>0.8959130283420257</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004914074171884084</v>
+        <v>0.0002332980329024701</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003318231463642507</v>
+        <v>0.0001361315593065257</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9707834360634021</v>
+        <v>0.8959130283420257</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4340,26 +3980,26 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_34.fasta</t>
+          <t>label_UMGS91_15.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04463748526683364</v>
+        <v>0.04094375146910673</v>
       </c>
       <c r="C46" t="n">
-        <v>2.219130254864946e-14</v>
+        <v>2.219790560371025e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9530227425529864</v>
+        <v>0.9587976946585665</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0003837463174876455</v>
+        <v>0.0002515702393544482</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00195602586267011</v>
+        <v>6.983632950234079e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9530227425529864</v>
+        <v>0.9587976946585665</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4370,26 +4010,26 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_39.fasta</t>
+          <t>label_UMGS91_16.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02773800289221633</v>
+        <v>0.03185891604693782</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219610937897534e-14</v>
+        <v>2.219718535105105e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.968588476877337</v>
+        <v>0.9679847005707251</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0004194941381582647</v>
+        <v>0.0001548020489878459</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003254026092266378</v>
+        <v>1.58133332713879e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>0.968588476877337</v>
+        <v>0.9679847005707251</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4400,26 +4040,26 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_49.fasta</t>
+          <t>label_UMGS91_21.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1053940938442091</v>
+        <v>0.05580857512579877</v>
       </c>
       <c r="C48" t="n">
-        <v>2.219197904263384e-14</v>
+        <v>2.219680891705596e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8905285523392436</v>
+        <v>0.9440077614676323</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001646943127188239</v>
+        <v>0.0001721802997574709</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003912659503806253</v>
+        <v>1.148310678911168e-05</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8905285523392436</v>
+        <v>0.9440077614676323</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4430,26 +4070,26 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_5.fasta</t>
+          <t>label_UMGS91_27.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06463722219415927</v>
+        <v>0.07560860314946413</v>
       </c>
       <c r="C49" t="n">
-        <v>2.218572883221436e-14</v>
+        <v>2.219504009641903e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9327870379452766</v>
+        <v>0.9241839156257647</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001118443495622263</v>
+        <v>0.0001099102665978071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001457296364919716</v>
+        <v>9.7570958151111e-05</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9327870379452766</v>
+        <v>0.9241839156257647</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4460,26 +4100,26 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_52.fasta</t>
+          <t>label_UMGS91_28.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.09491513783466146</v>
+        <v>0.01554441065859278</v>
       </c>
       <c r="C50" t="n">
-        <v>2.219022286599595e-14</v>
+        <v>2.219887662397133e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9000807886967577</v>
+        <v>0.9841519031615009</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0002978398321714673</v>
+        <v>0.0003031208418872263</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00470623363638722</v>
+        <v>5.653379969789939e-07</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9000807886967577</v>
+        <v>0.9841519031615009</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4490,26 +4130,26 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_57.fasta</t>
+          <t>label_UMGS91_3.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.09156565481228769</v>
+        <v>0.0397856298432183</v>
       </c>
       <c r="C51" t="n">
-        <v>2.219183147545745e-14</v>
+        <v>2.21973356205594e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9037469352430666</v>
+        <v>0.9597622452086786</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0002503121716823301</v>
+        <v>0.0004505094675815167</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004437097772941246</v>
+        <v>1.615480499299266e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9037469352430666</v>
+        <v>0.9597622452086786</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4520,26 +4160,26 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_59.fasta</t>
+          <t>label_UMGS91_31.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.08616263496110702</v>
+        <v>0.09997445890155879</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219943649183241e-14</v>
+        <v>2.219256908663011e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9061515028825446</v>
+        <v>0.8998075766999362</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0001319161555530762</v>
+        <v>0.0001681035164823225</v>
       </c>
       <c r="F52" t="n">
-        <v>0.007553946000773027</v>
+        <v>4.98608820006142e-05</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9061515028825446</v>
+        <v>0.8998075766999362</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4550,26 +4190,26 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_61.fasta</t>
+          <t>label_UMGS91_32.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.09095762489831344</v>
+        <v>0.08734716398785779</v>
       </c>
       <c r="C53" t="n">
-        <v>2.219163826194547e-14</v>
+        <v>2.219518053949323e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9041334878971495</v>
+        <v>0.9124222581759273</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0001372795457326912</v>
+        <v>0.0002176958845856912</v>
       </c>
       <c r="F53" t="n">
-        <v>0.004771607658782227</v>
+        <v>1.288195160716629e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9041334878971495</v>
+        <v>0.9124222581759273</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4580,26 +4220,26 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_64.fasta</t>
+          <t>label_UMGS91_38.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.05991358860349386</v>
+        <v>0.04972377283272362</v>
       </c>
       <c r="C54" t="n">
-        <v>2.219896223151363e-14</v>
+        <v>2.219651520731916e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.935240049190497</v>
+        <v>0.950198846456381</v>
       </c>
       <c r="E54" t="n">
-        <v>6.750130125266039e-05</v>
+        <v>7.00444297101189e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004778860904734324</v>
+        <v>7.336281163110271e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>0.935240049190497</v>
+        <v>0.950198846456381</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4610,26 +4250,26 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_69.fasta</t>
+          <t>label_UMGS91_43.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08370232398930212</v>
+        <v>0.04550004844969611</v>
       </c>
       <c r="C55" t="n">
-        <v>2.219459051746111e-14</v>
+        <v>2.219548524587405e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9100884620186461</v>
+        <v>0.9544006910067551</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0001984398264433225</v>
+        <v>9.116848393239434e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>0.006010774165586244</v>
+        <v>8.092059594093394e-06</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9100884620186461</v>
+        <v>0.9544006910067551</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4640,26 +4280,26 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_72.fasta</t>
+          <t>label_UMGS91_45.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04171243339909066</v>
+        <v>0.2007850586595822</v>
       </c>
       <c r="C56" t="n">
-        <v>2.21944313068275e-14</v>
+        <v>2.528977098804954e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9538771046567723</v>
+        <v>0.7977523344752605</v>
       </c>
       <c r="E56" t="n">
-        <v>2.252466774547044e-05</v>
+        <v>0.001371320779794801</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004387937276369254</v>
+        <v>9.128608533717902e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9538771046567723</v>
+        <v>0.7977523344752605</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -4670,26 +4310,26 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_73.fasta</t>
+          <t>label_UMGS91_58.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05073132600983772</v>
+        <v>0.07577584510346795</v>
       </c>
       <c r="C57" t="n">
-        <v>2.21951549826042e-14</v>
+        <v>2.219247013827516e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9427378399862923</v>
+        <v>0.9235819709735279</v>
       </c>
       <c r="E57" t="n">
-        <v>5.379302287239882e-05</v>
+        <v>9.571164784060143e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006477040980975268</v>
+        <v>0.0005464722751413618</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9427378399862923</v>
+        <v>0.9235819709735279</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -4700,26 +4340,26 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_8.fasta</t>
+          <t>label_UMGS91_63.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1076297037181239</v>
+        <v>0.09134601046796285</v>
       </c>
       <c r="C58" t="n">
-        <v>2.218815100131162e-14</v>
+        <v>2.21957988956983e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8882658043012505</v>
+        <v>0.9084217955471569</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001053617976570149</v>
+        <v>7.971248830589419e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003050874004033339</v>
+        <v>0.0001524814965523899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8882658043012505</v>
+        <v>0.9084217955471569</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -4730,26 +4370,26 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_82.fasta</t>
+          <t>label_UMGS91_66.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1603645805489956</v>
+        <v>0.1250674306848094</v>
       </c>
       <c r="C59" t="n">
-        <v>2.221742541535873e-14</v>
+        <v>2.219742400719927e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8226134997936502</v>
+        <v>0.874797482560827</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0005577570668463677</v>
+        <v>6.136856354295307e-05</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01646416259048568</v>
+        <v>7.371819079851715e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8226134997936502</v>
+        <v>0.874797482560827</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -4760,56 +4400,56 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_85.fasta</t>
+          <t>label_UMGS91_70.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05549986375242523</v>
+        <v>0.540350854012785</v>
       </c>
       <c r="C60" t="n">
-        <v>2.219787634022947e-14</v>
+        <v>4.516012095821508e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9371263313008416</v>
+        <v>0.4462132492151561</v>
       </c>
       <c r="E60" t="n">
-        <v>2.588542750026936e-05</v>
+        <v>0.0003834248566333432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.007347919519210647</v>
+        <v>0.01305247191538029</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9371263313008416</v>
+        <v>0.540350854012785</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_86.fasta</t>
+          <t>label_UMGS91_78.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1028350778458515</v>
+        <v>0.06235704039881424</v>
       </c>
       <c r="C61" t="n">
-        <v>2.220119999373414e-14</v>
+        <v>2.219677358057481e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8878631785453955</v>
+        <v>0.9373194656589001</v>
       </c>
       <c r="E61" t="n">
-        <v>3.194245621978194e-05</v>
+        <v>0.0001573233058283278</v>
       </c>
       <c r="F61" t="n">
-        <v>0.009269801152511107</v>
+        <v>0.0001661706364352637</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8878631785453955</v>
+        <v>0.9373194656589001</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -4820,26 +4460,26 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_96.fasta</t>
+          <t>label_UMGS91_84.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08987408814486499</v>
+        <v>0.4600585652433222</v>
       </c>
       <c r="C62" t="n">
-        <v>2.21888893852724e-14</v>
+        <v>3.110764241009355e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9057431878297389</v>
+        <v>0.5338184234240758</v>
       </c>
       <c r="E62" t="n">
-        <v>3.263594039744814e-06</v>
+        <v>0.0003781505812773826</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004379460431333975</v>
+        <v>0.005744860751293401</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9057431878297389</v>
+        <v>0.5338184234240758</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -4850,26 +4490,26 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_98.fasta</t>
+          <t>label_UMGS91_9.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02841867466115602</v>
+        <v>0.02539848283098944</v>
       </c>
       <c r="C63" t="n">
-        <v>2.223325158180348e-14</v>
+        <v>2.219669379260532e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9304007854187032</v>
+        <v>0.9744085917584078</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001678613686001407</v>
+        <v>0.0001920116883092317</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04101267855151842</v>
+        <v>9.137222715370741e-07</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9304007854187032</v>
+        <v>0.9744085917584078</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -4880,26 +4520,26 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_0.fasta</t>
+          <t>label_UMGS91_92.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1078419579236903</v>
+        <v>0.07446138837019996</v>
       </c>
       <c r="C64" t="n">
-        <v>2.219866154591555e-14</v>
+        <v>2.218810917556918e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8908545206705912</v>
+        <v>0.9233519668884554</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001286885210941764</v>
+        <v>0.0008704807962382601</v>
       </c>
       <c r="F64" t="n">
-        <v>1.663619475460277e-05</v>
+        <v>0.001316163945084159</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8908545206705912</v>
+        <v>0.9233519668884554</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -4910,26 +4550,26 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_1.fasta</t>
+          <t>label_UMGS91_97.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.03714486879568187</v>
+        <v>0.1744600905426</v>
       </c>
       <c r="C65" t="n">
-        <v>2.219557690865634e-14</v>
+        <v>2.219008337694589e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9624034498162832</v>
+        <v>0.8237787522345691</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0004495553560542729</v>
+        <v>0.0009352966288695405</v>
       </c>
       <c r="F65" t="n">
-        <v>2.126031958224851e-06</v>
+        <v>0.0008258605939390573</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9624034498162832</v>
+        <v>0.8237787522345691</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -4940,26 +4580,26 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_102.fasta</t>
+          <t>label_UMGS91_11.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4057919201903419</v>
+        <v>0.01558933043187172</v>
       </c>
       <c r="C66" t="n">
-        <v>2.237993012870149e-14</v>
+        <v>2.545606334088796e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5453553245336463</v>
+        <v>0.9836841608924674</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002631317988756849</v>
+        <v>3.876915958837903e-05</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04622143728723258</v>
+        <v>0.0006877395160472144</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5453553245336463</v>
+        <v>0.9836841608924674</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -4970,26 +4610,26 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_13.fasta</t>
+          <t>label_UMGS91_14.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1037175420657429</v>
+        <v>0.01823575191630404</v>
       </c>
       <c r="C67" t="n">
-        <v>2.219260100864684e-14</v>
+        <v>2.219872236514771e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8959130283420257</v>
+        <v>0.9812121456085322</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0002332980329024701</v>
+        <v>2.707626167519606e-05</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001361315593065257</v>
+        <v>0.0005250262134662572</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8959130283420257</v>
+        <v>0.9812121456085322</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -5000,26 +4640,26 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_15.fasta</t>
+          <t>label_UMGS91_17.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04094375146910673</v>
+        <v>0.03030337839980998</v>
       </c>
       <c r="C68" t="n">
-        <v>2.219790560371025e-14</v>
+        <v>2.219709727577985e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9587976946585665</v>
+        <v>0.9693239328705294</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0002515702393544482</v>
+        <v>5.544040765005337e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>6.983632950234079e-06</v>
+        <v>0.0003172483219883058</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9587976946585665</v>
+        <v>0.9693239328705294</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -5030,26 +4670,26 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_16.fasta</t>
+          <t>label_UMGS91_18.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03185891604693782</v>
+        <v>0.009733855724536342</v>
       </c>
       <c r="C69" t="n">
-        <v>2.219718535105105e-14</v>
+        <v>2.219931896108607e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9679847005707251</v>
+        <v>0.9895051129345515</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001548020489878459</v>
+        <v>5.910006007384986e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58133332713879e-06</v>
+        <v>0.0007019312808162244</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9679847005707251</v>
+        <v>0.9895051129345515</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -5060,26 +4700,26 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_21.fasta</t>
+          <t>label_UMGS91_23.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05580857512579877</v>
+        <v>0.1656257714337713</v>
       </c>
       <c r="C70" t="n">
-        <v>2.219680891705596e-14</v>
+        <v>2.220185582893925e-14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9440077614676323</v>
+        <v>0.8299044390348728</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001721802997574709</v>
+        <v>0.0003736091404040615</v>
       </c>
       <c r="F70" t="n">
-        <v>1.148310678911168e-05</v>
+        <v>0.004096180390929813</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9440077614676323</v>
+        <v>0.8299044390348728</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -5090,26 +4730,26 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_27.fasta</t>
+          <t>label_UMGS91_26.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.07560860314946413</v>
+        <v>0.02920024066890705</v>
       </c>
       <c r="C71" t="n">
-        <v>2.219504009641903e-14</v>
+        <v>2.21987585502933e-14</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9241839156257647</v>
+        <v>0.9700727794989202</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001099102665978071</v>
+        <v>5.925089555969003e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>9.7570958151111e-05</v>
+        <v>0.0006677289365907166</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9241839156257647</v>
+        <v>0.9700727794989202</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -5120,26 +4760,26 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_28.fasta</t>
+          <t>label_UMGS91_37.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01554441065859278</v>
+        <v>0.02487620934920096</v>
       </c>
       <c r="C72" t="n">
-        <v>2.219887662397133e-14</v>
+        <v>2.21971838501035e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9841519031615009</v>
+        <v>0.9739858519218858</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0003031208418872263</v>
+        <v>0.0001330013899170891</v>
       </c>
       <c r="F72" t="n">
-        <v>5.653379969789939e-07</v>
+        <v>0.001004937338973997</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9841519031615009</v>
+        <v>0.9739858519218858</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -5150,26 +4790,26 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_3.fasta</t>
+          <t>label_UMGS91_4.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0397856298432183</v>
+        <v>0.02010162807024428</v>
       </c>
       <c r="C73" t="n">
-        <v>2.21973356205594e-14</v>
+        <v>2.219883414741645e-14</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9597622452086786</v>
+        <v>0.9794519625107828</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0004505094675815167</v>
+        <v>1.002072781514669e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>1.615480499299266e-06</v>
+        <v>0.0004363886911355105</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9597622452086786</v>
+        <v>0.9794519625107828</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -5180,26 +4820,26 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_31.fasta</t>
+          <t>label_UMGS91_42.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.09997445890155879</v>
+        <v>0.02170678919468104</v>
       </c>
       <c r="C74" t="n">
-        <v>2.219256908663011e-14</v>
+        <v>2.219584354641699e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8998075766999362</v>
+        <v>0.9775437290649445</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001681035164823225</v>
+        <v>0.0001623803422139917</v>
       </c>
       <c r="F74" t="n">
-        <v>4.98608820006142e-05</v>
+        <v>0.0005871013981382261</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8998075766999362</v>
+        <v>0.9775437290649445</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -5210,26 +4850,26 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_32.fasta</t>
+          <t>label_UMGS91_47.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08734716398785779</v>
+        <v>0.1893434105421551</v>
       </c>
       <c r="C75" t="n">
-        <v>2.219518053949323e-14</v>
+        <v>2.220376807042921e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9124222581759273</v>
+        <v>0.7992808849857337</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0002176958845856912</v>
+        <v>0.001789098732084756</v>
       </c>
       <c r="F75" t="n">
-        <v>1.288195160716629e-05</v>
+        <v>0.009586605740004155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9124222581759273</v>
+        <v>0.7992808849857337</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -5240,26 +4880,26 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_38.fasta</t>
+          <t>label_UMGS91_53.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.04972377283272362</v>
+        <v>0.01510435563942489</v>
       </c>
       <c r="C76" t="n">
-        <v>2.219651520731916e-14</v>
+        <v>2.220051131687493e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>0.950198846456381</v>
+        <v>0.9831875704291431</v>
       </c>
       <c r="E76" t="n">
-        <v>7.00444297101189e-05</v>
+        <v>0.0008501713381860391</v>
       </c>
       <c r="F76" t="n">
-        <v>7.336281163110271e-06</v>
+        <v>0.0008579025932236863</v>
       </c>
       <c r="G76" t="n">
-        <v>0.950198846456381</v>
+        <v>0.9831875704291431</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -5270,26 +4910,26 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_43.fasta</t>
+          <t>label_UMGS91_54.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.04550004844969611</v>
+        <v>0.09523708982082958</v>
       </c>
       <c r="C77" t="n">
-        <v>2.219548524587405e-14</v>
+        <v>2.219710908697495e-14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9544006910067551</v>
+        <v>0.9032960168814136</v>
       </c>
       <c r="E77" t="n">
-        <v>9.116848393239434e-05</v>
+        <v>0.0005714482055445395</v>
       </c>
       <c r="F77" t="n">
-        <v>8.092059594093394e-06</v>
+        <v>0.0008954450921901484</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9544006910067551</v>
+        <v>0.9032960168814136</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -5300,26 +4940,26 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_45.fasta</t>
+          <t>label_UMGS91_56.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2007850586595822</v>
+        <v>0.2170929374861948</v>
       </c>
       <c r="C78" t="n">
-        <v>2.528977098804954e-14</v>
+        <v>2.220360250811402e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7977523344752605</v>
+        <v>0.7774288063727207</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001371320779794801</v>
+        <v>0.004695507516336531</v>
       </c>
       <c r="F78" t="n">
-        <v>9.128608533717902e-05</v>
+        <v>0.0007827486247255431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7977523344752605</v>
+        <v>0.7774288063727207</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5330,26 +4970,26 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_58.fasta</t>
+          <t>label_UMGS91_65.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07577584510346795</v>
+        <v>0.02356547609256837</v>
       </c>
       <c r="C79" t="n">
-        <v>2.219247013827516e-14</v>
+        <v>2.220191378054629e-14</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9235819709735279</v>
+        <v>0.9704563197128381</v>
       </c>
       <c r="E79" t="n">
-        <v>9.571164784060143e-05</v>
+        <v>0.004017182908262002</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0005464722751413618</v>
+        <v>0.001961021286309485</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9235819709735279</v>
+        <v>0.9704563197128381</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -5360,26 +5000,26 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_63.fasta</t>
+          <t>label_UMGS91_76.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09134601046796285</v>
+        <v>0.04115358492236237</v>
       </c>
       <c r="C80" t="n">
-        <v>2.21957988956983e-14</v>
+        <v>2.219918373555456e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9084217955471569</v>
+        <v>0.9526395069646185</v>
       </c>
       <c r="E80" t="n">
-        <v>7.971248830589419e-05</v>
+        <v>0.004914489411597971</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0001524814965523899</v>
+        <v>0.001292418701398888</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9084217955471569</v>
+        <v>0.9526395069646185</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5390,26 +5030,26 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_66.fasta</t>
+          <t>label_UMGS91_81.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1250674306848094</v>
+        <v>0.01103744678626693</v>
       </c>
       <c r="C81" t="n">
-        <v>2.219742400719927e-14</v>
+        <v>2.220201100243641e-14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.874797482560827</v>
+        <v>0.976961511629301</v>
       </c>
       <c r="E81" t="n">
-        <v>6.136856354295307e-05</v>
+        <v>0.01054957038638808</v>
       </c>
       <c r="F81" t="n">
-        <v>7.371819079851715e-05</v>
+        <v>0.00145147119802181</v>
       </c>
       <c r="G81" t="n">
-        <v>0.874797482560827</v>
+        <v>0.976961511629301</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5420,56 +5060,56 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_70.fasta</t>
+          <t>label_UMGS91_88.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.540350854012785</v>
+        <v>0.04453664216130154</v>
       </c>
       <c r="C82" t="n">
-        <v>4.516012095821508e-14</v>
+        <v>2.22063166209731e-14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4462132492151561</v>
+        <v>0.9438656237140303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0003834248566333432</v>
+        <v>0.00804531217006939</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01305247191538029</v>
+        <v>0.003552421954576654</v>
       </c>
       <c r="G82" t="n">
-        <v>0.540350854012785</v>
+        <v>0.9438656237140303</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_78.fasta</t>
+          <t>label_UMGS91_94.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.06235704039881424</v>
+        <v>0.005868579637528698</v>
       </c>
       <c r="C83" t="n">
-        <v>2.219677358057481e-14</v>
+        <v>2.220387382730231e-14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9373194656589001</v>
+        <v>0.9808046947132288</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0001573233058283278</v>
+        <v>0.002643241839149331</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0001661706364352637</v>
+        <v>0.01068348381007085</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9373194656589001</v>
+        <v>0.9808046947132288</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5480,26 +5120,26 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_84.fasta</t>
+          <t>label_UMGS91_10.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4600585652433222</v>
+        <v>0.4963444261187209</v>
       </c>
       <c r="C84" t="n">
-        <v>3.110764241009355e-14</v>
+        <v>2.330071931993343e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5338184234240758</v>
+        <v>0.5033822160029711</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0003781505812773826</v>
+        <v>0.000273357878261494</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005744860751293401</v>
+        <v>2.330071931993343e-14</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5338184234240758</v>
+        <v>0.5033822160029711</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5510,26 +5150,26 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_9.fasta</t>
+          <t>label_UMGS91_20.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02539848283098944</v>
+        <v>0.06820984355220797</v>
       </c>
       <c r="C85" t="n">
-        <v>2.219669379260532e-14</v>
+        <v>2.219743202865186e-14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9744085917584078</v>
+        <v>0.9316846414422149</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0001920116883092317</v>
+        <v>0.0001055150055328773</v>
       </c>
       <c r="F85" t="n">
-        <v>9.137222715370741e-07</v>
+        <v>2.219743202865186e-14</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9744085917584078</v>
+        <v>0.9316846414422149</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5540,26 +5180,26 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_92.fasta</t>
+          <t>label_UMGS91_24.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07446138837019996</v>
+        <v>0.01609786116163219</v>
       </c>
       <c r="C86" t="n">
-        <v>2.218810917556918e-14</v>
+        <v>2.848953764006105e-14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9233519668884554</v>
+        <v>0.9834895371542627</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0008704807962382601</v>
+        <v>0.000412601684048069</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001316163945084159</v>
+        <v>2.848953764006103e-14</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9233519668884554</v>
+        <v>0.9834895371542627</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5570,26 +5210,26 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_97.fasta</t>
+          <t>label_UMGS91_35.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1744600905426</v>
+        <v>0.0195533844437126</v>
       </c>
       <c r="C87" t="n">
-        <v>2.219008337694589e-14</v>
+        <v>2.219860965435026e-14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8237787522345691</v>
+        <v>0.9802601596315993</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0009352966288695405</v>
+        <v>0.0001864559246437325</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0008258605939390573</v>
+        <v>2.219860965435026e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8237787522345691</v>
+        <v>0.9802601596315993</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5600,26 +5240,26 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_11.fasta</t>
+          <t>label_UMGS91_40.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01558933043187172</v>
+        <v>0.1031894868769353</v>
       </c>
       <c r="C88" t="n">
-        <v>2.545606334088796e-14</v>
+        <v>2.219818244758375e-14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9836841608924674</v>
+        <v>0.8965596478255115</v>
       </c>
       <c r="E88" t="n">
-        <v>3.876915958837903e-05</v>
+        <v>0.0002508652975088968</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0006877395160472144</v>
+        <v>2.219818244758375e-14</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9836841608924674</v>
+        <v>0.8965596478255115</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5630,26 +5270,26 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_14.fasta</t>
+          <t>label_UMGS91_44.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01823575191630404</v>
+        <v>0.09107236720357524</v>
       </c>
       <c r="C89" t="n">
-        <v>2.219872236514771e-14</v>
+        <v>2.21995712428928e-14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9812121456085322</v>
+        <v>0.907662069034141</v>
       </c>
       <c r="E89" t="n">
-        <v>2.707626167519606e-05</v>
+        <v>0.001265563762239318</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0005250262134662572</v>
+        <v>2.21995712428928e-14</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9812121456085322</v>
+        <v>0.907662069034141</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5660,26 +5300,26 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_17.fasta</t>
+          <t>label_UMGS91_46.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03030337839980998</v>
+        <v>0.1575064587633818</v>
       </c>
       <c r="C90" t="n">
-        <v>2.219709727577985e-14</v>
+        <v>2.219940630490977e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9693239328705294</v>
+        <v>0.8422150121922816</v>
       </c>
       <c r="E90" t="n">
-        <v>5.544040765005337e-05</v>
+        <v>0.0002785290442922483</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0003172483219883058</v>
+        <v>2.219940630490977e-14</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9693239328705294</v>
+        <v>0.8422150121922816</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5690,26 +5330,26 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_18.fasta</t>
+          <t>label_UMGS91_48.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.009733855724536342</v>
+        <v>0.06639082614905675</v>
       </c>
       <c r="C91" t="n">
-        <v>2.219931896108607e-14</v>
+        <v>2.219940987990327e-14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9895051129345515</v>
+        <v>0.9333662719336518</v>
       </c>
       <c r="E91" t="n">
-        <v>5.910006007384986e-05</v>
+        <v>0.000242901917247001</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0007019312808162244</v>
+        <v>2.219940987990327e-14</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9895051129345515</v>
+        <v>0.9333662719336518</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5720,26 +5360,26 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_23.fasta</t>
+          <t>label_UMGS91_50.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1656257714337713</v>
+        <v>0.01350204280524043</v>
       </c>
       <c r="C92" t="n">
-        <v>2.220185582893925e-14</v>
+        <v>2.219878228964682e-14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8299044390348728</v>
+        <v>0.9861517770050052</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0003736091404040615</v>
+        <v>0.0003461801897099427</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004096180390929813</v>
+        <v>2.219878228964682e-14</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8299044390348728</v>
+        <v>0.9861517770050052</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5750,26 +5390,26 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_26.fasta</t>
+          <t>label_UMGS91_55.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02920024066890705</v>
+        <v>0.02183820653338716</v>
       </c>
       <c r="C93" t="n">
-        <v>2.21987585502933e-14</v>
+        <v>2.219854750468591e-14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9700727794989202</v>
+        <v>0.9778615855042094</v>
       </c>
       <c r="E93" t="n">
-        <v>5.925089555969003e-05</v>
+        <v>0.0003002079623589389</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0006677289365907166</v>
+        <v>2.219854750468591e-14</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9700727794989202</v>
+        <v>0.9778615855042094</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5780,26 +5420,26 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_37.fasta</t>
+          <t>label_UMGS91_7.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02487620934920096</v>
+        <v>0.0383181245068045</v>
       </c>
       <c r="C94" t="n">
-        <v>2.21971838501035e-14</v>
+        <v>2.219894353288569e-14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9739858519218858</v>
+        <v>0.9616278063717854</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0001330013899170891</v>
+        <v>5.406912136583066e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001004937338973997</v>
+        <v>2.219894353288569e-14</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9739858519218858</v>
+        <v>0.9616278063717854</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5810,26 +5450,26 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_4.fasta</t>
+          <t>label_UMGS91_75.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02010162807024428</v>
+        <v>0.05997538526616126</v>
       </c>
       <c r="C95" t="n">
-        <v>2.219883414741645e-14</v>
+        <v>2.219912867970783e-14</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9794519625107828</v>
+        <v>0.9392993036818613</v>
       </c>
       <c r="E95" t="n">
-        <v>1.002072781514669e-05</v>
+        <v>0.0007253110519329432</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0004363886911355105</v>
+        <v>2.219912867970783e-14</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9794519625107828</v>
+        <v>0.9392993036818613</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5840,26 +5480,26 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_42.fasta</t>
+          <t>label_UMGS91_80.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02170678919468104</v>
+        <v>0.06683361459931997</v>
       </c>
       <c r="C96" t="n">
-        <v>2.219584354641699e-14</v>
+        <v>2.219813976781651e-14</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9775437290649445</v>
+        <v>0.9318422904053464</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0001623803422139917</v>
+        <v>0.001324094995289354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0005871013981382261</v>
+        <v>2.219813976781651e-14</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9775437290649445</v>
+        <v>0.9318422904053464</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5870,26 +5510,26 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_47.fasta</t>
+          <t>label_UMGS91_89.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1893434105421551</v>
+        <v>0.09965051363510363</v>
       </c>
       <c r="C97" t="n">
-        <v>2.220376807042921e-14</v>
+        <v>2.255549068479971e-14</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7992808849857337</v>
+        <v>0.8959029438506475</v>
       </c>
       <c r="E97" t="n">
-        <v>0.001789098732084756</v>
+        <v>0.004446542514203859</v>
       </c>
       <c r="F97" t="n">
-        <v>0.009586605740004155</v>
+        <v>2.255549068479972e-14</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7992808849857337</v>
+        <v>0.8959029438506475</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5900,26 +5540,26 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_53.fasta</t>
+          <t>label_UMGS91_90.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01510435563942489</v>
+        <v>0.1932372202252277</v>
       </c>
       <c r="C98" t="n">
-        <v>2.220051131687493e-14</v>
+        <v>3.736267771829872e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9831875704291431</v>
+        <v>0.7975012619071924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0008501713381860391</v>
+        <v>0.009261517867505367</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0008579025932236863</v>
+        <v>3.736267771829879e-14</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9831875704291431</v>
+        <v>0.7975012619071924</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5930,688 +5570,28 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS91_54.fasta</t>
+          <t>label_UMGS91_99.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.09523708982082958</v>
+        <v>0.5751673334562339</v>
       </c>
       <c r="C99" t="n">
-        <v>2.219710908697495e-14</v>
+        <v>5.617327351961085e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9032960168814136</v>
+        <v>0.4200474760579916</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0005714482055445395</v>
+        <v>0.004785190485662194</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008954450921901484</v>
+        <v>5.617327351961085e-14</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9032960168814136</v>
+        <v>0.5751673334562339</v>
       </c>
       <c r="H99" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_56.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.2170929374861948</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.220360250811402e-14</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.7774288063727207</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.004695507516336531</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0007827486247255431</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.7774288063727207</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_65.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.02356547609256837</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.220191378054629e-14</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9704563197128381</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.004017182908262002</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001961021286309485</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.9704563197128381</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_76.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.04115358492236237</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.219918373555456e-14</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9526395069646185</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.004914489411597971</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.001292418701398888</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.9526395069646185</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_81.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.01103744678626693</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.220201100243641e-14</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.976961511629301</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.01054957038638808</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.00145147119802181</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.976961511629301</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_88.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.04453664216130154</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.22063166209731e-14</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.9438656237140303</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.00804531217006939</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.003552421954576654</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.9438656237140303</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_94.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.005868579637528698</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.220387382730231e-14</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9808046947132288</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.002643241839149331</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.01068348381007085</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.9808046947132288</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_10.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.4963444261187209</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2.330071931993343e-14</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.5033822160029711</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.000273357878261494</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2.330071931993343e-14</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.5033822160029711</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_20.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.06820984355220797</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2.219743202865186e-14</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9316846414422149</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0001055150055328773</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2.219743202865186e-14</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.9316846414422149</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_24.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.01609786116163219</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2.848953764006105e-14</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9834895371542627</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.000412601684048069</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2.848953764006103e-14</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.9834895371542627</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_35.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.0195533844437126</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2.219860965435026e-14</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9802601596315993</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.0001864559246437325</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2.219860965435026e-14</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9802601596315993</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_40.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.1031894868769353</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2.219818244758375e-14</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.8965596478255115</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.0002508652975088968</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2.219818244758375e-14</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.8965596478255115</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_44.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.09107236720357524</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.21995712428928e-14</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.907662069034141</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.001265563762239318</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2.21995712428928e-14</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.907662069034141</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_46.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.1575064587633818</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2.219940630490977e-14</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.8422150121922816</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0002785290442922483</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2.219940630490977e-14</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.8422150121922816</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_48.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.06639082614905675</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2.219940987990327e-14</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9333662719336518</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.000242901917247001</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2.219940987990327e-14</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.9333662719336518</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_50.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01350204280524043</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2.219878228964682e-14</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9861517770050052</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.0003461801897099427</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2.219878228964682e-14</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.9861517770050052</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_55.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.02183820653338716</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2.219854750468591e-14</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.9778615855042094</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.0003002079623589389</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2.219854750468591e-14</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.9778615855042094</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_7.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.0383181245068045</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.219894353288569e-14</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9616278063717854</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5.406912136583066e-05</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2.219894353288569e-14</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.9616278063717854</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_75.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.05997538526616126</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.219912867970783e-14</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9392993036818613</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0007253110519329432</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2.219912867970783e-14</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.9392993036818613</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_80.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.06683361459931997</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.219813976781651e-14</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9318422904053464</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.001324094995289354</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2.219813976781651e-14</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.9318422904053464</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_89.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.09965051363510363</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.255549068479971e-14</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.8959029438506475</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.004446542514203859</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2.255549068479972e-14</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.8959029438506475</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_90.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.1932372202252277</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.736267771829872e-14</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.7975012619071924</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.009261517867505367</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3.736267771829879e-14</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.7975012619071924</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539095</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS91_99.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5751673334562339</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.617327351961085e-14</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4200474760579916</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.004785190485662194</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5.617327351961085e-14</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.5751673334562339</v>
-      </c>
-      <c r="H121" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D bicirculans</t>
         </is>
@@ -6628,7 +5608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6921,26 +5901,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_14.fasta</t>
+          <t>label_UMGS176_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1713895895546376</v>
+        <v>0.03487305894247367</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219738761342894e-14</v>
+        <v>2.220024143903667e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00569929516397361</v>
+        <v>0.0003762739001834212</v>
       </c>
       <c r="E10" t="n">
-        <v>0.822906474595301</v>
+        <v>0.9578890212615061</v>
       </c>
       <c r="F10" t="n">
-        <v>4.640686065698912e-06</v>
+        <v>0.006861645895814593</v>
       </c>
       <c r="G10" t="n">
-        <v>0.822906474595301</v>
+        <v>0.9578890212615061</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -6951,26 +5931,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_16.fasta</t>
+          <t>label_UMGS176_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09036537481550538</v>
+        <v>0.02955071546580591</v>
       </c>
       <c r="C11" t="n">
-        <v>2.218669405234679e-14</v>
+        <v>2.219012364433808e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001141173324344382</v>
+        <v>0.0002535133977113497</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9081577270712933</v>
+        <v>0.9680215495824767</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003357247888349822</v>
+        <v>0.0021742215539838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9081577270712933</v>
+        <v>0.9680215495824767</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -6981,26 +5961,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_17.fasta</t>
+          <t>label_UMGS176_24.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02851270776195184</v>
+        <v>0.01200623600146555</v>
       </c>
       <c r="C12" t="n">
-        <v>2.219392840568497e-14</v>
+        <v>2.219872378709301e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001289721064296106</v>
+        <v>0.0001376572476189288</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9701535235585594</v>
+        <v>0.9856914100427356</v>
       </c>
       <c r="F12" t="n">
-        <v>4.404761517047042e-05</v>
+        <v>0.00216469670815767</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9701535235585594</v>
+        <v>0.9856914100427356</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -7011,26 +5991,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_19.fasta</t>
+          <t>label_UMGS176_25.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03945134471363888</v>
+        <v>0.03985194758994232</v>
       </c>
       <c r="C13" t="n">
-        <v>2.219107556432169e-14</v>
+        <v>2.21889855718252e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001243282743406857</v>
+        <v>0.001265075150512734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9592896422753154</v>
+        <v>0.9574306526197985</v>
       </c>
       <c r="F13" t="n">
-        <v>1.573026761664944e-05</v>
+        <v>0.001452324639724255</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9592896422753154</v>
+        <v>0.9574306526197985</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -7041,26 +6021,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_21.fasta</t>
+          <t>label_UMGS176_29.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05044726891788179</v>
+        <v>0.01536654143299755</v>
       </c>
       <c r="C14" t="n">
-        <v>2.852985340950737e-14</v>
+        <v>2.22004702539318e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01663243227157317</v>
+        <v>0.0006579117174969906</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9313959466850731</v>
+        <v>0.9798320556619147</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001524352125443476</v>
+        <v>0.004143491187568557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9313959466850731</v>
+        <v>0.9798320556619147</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -7071,26 +6051,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_28.fasta</t>
+          <t>label_UMGS176_34.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05390255952490045</v>
+        <v>0.06291946485101491</v>
       </c>
       <c r="C15" t="n">
-        <v>2.218979726183693e-14</v>
+        <v>2.222597022866681e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002893712897256379</v>
+        <v>0.0259471497980008</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9431912356261023</v>
+        <v>0.9044025263841208</v>
       </c>
       <c r="F15" t="n">
-        <v>1.249195171867113e-05</v>
+        <v>0.006730858966841276</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9431912356261023</v>
+        <v>0.9044025263841208</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -7101,26 +6081,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_7.fasta</t>
+          <t>label_UMGS176_4.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04857462322903426</v>
+        <v>0.02806896354451913</v>
       </c>
       <c r="C16" t="n">
-        <v>2.219160042119812e-14</v>
+        <v>2.21931463655422e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001393906227429543</v>
+        <v>0.0003428853092196144</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9498530501642503</v>
+        <v>0.9686234664353428</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001784203792635687</v>
+        <v>0.002964684710896139</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9498530501642503</v>
+        <v>0.9686234664353428</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -7131,26 +6111,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_8.fasta</t>
+          <t>label_UMGS176_40.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01776727095775238</v>
+        <v>0.005195740480051224</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219541000681767e-14</v>
+        <v>2.220380667731577e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007053044573512027</v>
+        <v>0.002660098239610325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9815105398689375</v>
+        <v>0.9903863291743908</v>
       </c>
       <c r="F17" t="n">
-        <v>1.688471593677246e-05</v>
+        <v>0.001757832105925383</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9815105398689375</v>
+        <v>0.9903863291743908</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -7161,26 +6141,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_1.fasta</t>
+          <t>label_UMGS176_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03487305894247367</v>
+        <v>0.009854392225815129</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220024143903667e-14</v>
+        <v>2.220366873155005e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003762739001834212</v>
+        <v>0.0002687486820687233</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9578890212615061</v>
+        <v>0.9851137602732004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006861645895814593</v>
+        <v>0.004763098818893441</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9578890212615061</v>
+        <v>0.9851137602732004</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -7191,26 +6171,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_13.fasta</t>
+          <t>label_UMGS176_11.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02955071546580591</v>
+        <v>0.02081052733599022</v>
       </c>
       <c r="C19" t="n">
-        <v>2.219012364433808e-14</v>
+        <v>2.219728146102475e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002535133977113497</v>
+        <v>0.003497402949105511</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9680215495824767</v>
+        <v>0.9756917504183206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0021742215539838</v>
+        <v>3.192965614363597e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9680215495824767</v>
+        <v>0.9756917504183206</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -7221,26 +6201,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_24.fasta</t>
+          <t>label_UMGS176_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01200623600146555</v>
+        <v>0.009901377878276475</v>
       </c>
       <c r="C20" t="n">
-        <v>2.219872378709301e-14</v>
+        <v>2.219936155281712e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001376572476189288</v>
+        <v>0.001913012331670522</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9856914100427356</v>
+        <v>0.9881854350792885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00216469670815767</v>
+        <v>1.747107422454673e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9856914100427356</v>
+        <v>0.9881854350792885</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -7251,26 +6231,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_25.fasta</t>
+          <t>label_UMGS176_2.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03985194758994232</v>
+        <v>0.01858952292233376</v>
       </c>
       <c r="C21" t="n">
-        <v>2.21889855718252e-14</v>
+        <v>2.219840802376005e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001265075150512734</v>
+        <v>0.003629370592932534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9574306526197985</v>
+        <v>0.9777798493527402</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001452324639724255</v>
+        <v>1.257131971462128e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9574306526197985</v>
+        <v>0.9777798493527402</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -7281,56 +6261,56 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_29.fasta</t>
+          <t>label_UMGS176_31.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01536654143299755</v>
+        <v>0.4212637880496967</v>
       </c>
       <c r="C22" t="n">
-        <v>2.22004702539318e-14</v>
+        <v>1.172757683112682e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0006579117174969906</v>
+        <v>0.3135312515556971</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9798320556619147</v>
+        <v>0.2651783832536212</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004143491187568557</v>
+        <v>2.657714086787202e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9798320556619147</v>
+        <v>0.4212637880496967</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539835</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_34.fasta</t>
+          <t>label_UMGS176_37.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06291946485101491</v>
+        <v>0.02166804365600714</v>
       </c>
       <c r="C23" t="n">
-        <v>2.222597022866681e-14</v>
+        <v>2.219817564419845e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0259471497980008</v>
+        <v>0.004304371786109271</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9044025263841208</v>
+        <v>0.9740275549571329</v>
       </c>
       <c r="F23" t="n">
-        <v>0.006730858966841276</v>
+        <v>2.960072850579337e-08</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9044025263841208</v>
+        <v>0.9740275549571329</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -7341,26 +6321,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_4.fasta</t>
+          <t>label_UMGS176_38.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02806896354451913</v>
+        <v>0.03820974037837368</v>
       </c>
       <c r="C24" t="n">
-        <v>2.21931463655422e-14</v>
+        <v>2.221029498095567e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003428853092196144</v>
+        <v>0.01470972566085127</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9686234664353428</v>
+        <v>0.9470798720663175</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002964684710896139</v>
+        <v>6.618944353917066e-07</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9686234664353428</v>
+        <v>0.9470798720663175</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -7371,26 +6351,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_40.fasta</t>
+          <t>label_UMGS176_5.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005195740480051224</v>
+        <v>0.01857257183953428</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220380667731577e-14</v>
+        <v>2.219625051877908e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002660098239610325</v>
+        <v>0.00242302212372046</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9903863291743908</v>
+        <v>0.9790043460672174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001757832105925383</v>
+        <v>5.996950552412965e-08</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9903863291743908</v>
+        <v>0.9790043460672174</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -7401,26 +6381,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_9.fasta</t>
+          <t>label_UMGS176_6.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009854392225815129</v>
+        <v>0.02927863905188477</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220366873155005e-14</v>
+        <v>2.219661534670324e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002687486820687233</v>
+        <v>0.00427888640350179</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9851137602732004</v>
+        <v>0.9663935233656951</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004763098818893441</v>
+        <v>4.895117889628565e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9851137602732004</v>
+        <v>0.9663935233656951</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -7431,26 +6411,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_11.fasta</t>
+          <t>label_UMGS176_0.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02081052733599022</v>
+        <v>0.008293882139520712</v>
       </c>
       <c r="C27" t="n">
-        <v>2.219728146102475e-14</v>
+        <v>2.219830860323825e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003497402949105511</v>
+        <v>0.0002484710629317558</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9756917504183206</v>
+        <v>0.991313756423016</v>
       </c>
       <c r="F27" t="n">
-        <v>3.192965614363597e-07</v>
+        <v>0.0001438903745093672</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9756917504183206</v>
+        <v>0.991313756423016</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -7461,26 +6441,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_15.fasta</t>
+          <t>label_UMGS176_12.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009901377878276475</v>
+        <v>0.2684316820609928</v>
       </c>
       <c r="C28" t="n">
-        <v>2.219936155281712e-14</v>
+        <v>1.416765749931147e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001913012331670522</v>
+        <v>0.09609305867952336</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9881854350792885</v>
+        <v>0.5191411435706903</v>
       </c>
       <c r="F28" t="n">
-        <v>1.747107422454673e-07</v>
+        <v>0.1163341156886519</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9881854350792885</v>
+        <v>0.5191411435706903</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -7491,26 +6471,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_2.fasta</t>
+          <t>label_UMGS176_18.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01858952292233376</v>
+        <v>0.08559512294800824</v>
       </c>
       <c r="C29" t="n">
-        <v>2.219840802376005e-14</v>
+        <v>2.218930756415032e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003629370592932534</v>
+        <v>0.001693960143126843</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9777798493527402</v>
+        <v>0.9126317218253699</v>
       </c>
       <c r="F29" t="n">
-        <v>1.257131971462128e-06</v>
+        <v>7.919508347282201e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9777798493527402</v>
+        <v>0.9126317218253699</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -7521,56 +6501,56 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_31.fasta</t>
+          <t>label_UMGS176_26.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4212637880496967</v>
+        <v>0.0757543990998281</v>
       </c>
       <c r="C30" t="n">
-        <v>1.172757683112682e-13</v>
+        <v>2.220099889906515e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3135312515556971</v>
+        <v>0.005141592434084807</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2651783832536212</v>
+        <v>0.9164107088193251</v>
       </c>
       <c r="F30" t="n">
-        <v>2.657714086787202e-05</v>
+        <v>0.00269329964673991</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4212637880496967</v>
+        <v>0.9164107088193251</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900539835</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_37.fasta</t>
+          <t>label_UMGS176_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02166804365600714</v>
+        <v>0.03306721639396697</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219817564419845e-14</v>
+        <v>2.654276745119179e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004304371786109271</v>
+        <v>0.002425399158796827</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9740275549571329</v>
+        <v>0.9474928631719618</v>
       </c>
       <c r="F31" t="n">
-        <v>2.960072850579337e-08</v>
+        <v>0.01701452127524785</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9740275549571329</v>
+        <v>0.9474928631719618</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -7581,26 +6561,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_38.fasta</t>
+          <t>label_UMGS176_30.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03820974037837368</v>
+        <v>0.01720388055423058</v>
       </c>
       <c r="C32" t="n">
-        <v>2.221029498095567e-14</v>
+        <v>2.220835177459181e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01470972566085127</v>
+        <v>0.01259698000569062</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9470798720663175</v>
+        <v>0.9701873449568689</v>
       </c>
       <c r="F32" t="n">
-        <v>6.618944353917066e-07</v>
+        <v>1.179448318767688e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9470798720663175</v>
+        <v>0.9701873449568689</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -7611,26 +6591,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_5.fasta</t>
+          <t>label_UMGS176_32.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01857257183953428</v>
+        <v>0.02516339696907539</v>
       </c>
       <c r="C33" t="n">
-        <v>2.219625051877908e-14</v>
+        <v>4.135059784684826e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00242302212372046</v>
+        <v>0.01049996096805374</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9790043460672174</v>
+        <v>0.9617127500114749</v>
       </c>
       <c r="F33" t="n">
-        <v>5.996950552412965e-08</v>
+        <v>0.002623892051354593</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9790043460672174</v>
+        <v>0.9617127500114749</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -7641,26 +6621,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_6.fasta</t>
+          <t>label_UMGS176_35.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02927863905188477</v>
+        <v>0.1541916875093738</v>
       </c>
       <c r="C34" t="n">
-        <v>2.219661534670324e-14</v>
+        <v>6.117762999955864e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00427888640350179</v>
+        <v>0.1079957790651783</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9663935233656951</v>
+        <v>0.7339685476534096</v>
       </c>
       <c r="F34" t="n">
-        <v>4.895117889628565e-05</v>
+        <v>0.003843985771977185</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9663935233656951</v>
+        <v>0.7339685476534096</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -7671,26 +6651,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_0.fasta</t>
+          <t>label_UMGS176_36.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008293882139520712</v>
+        <v>0.2096260814935981</v>
       </c>
       <c r="C35" t="n">
-        <v>2.219830860323825e-14</v>
+        <v>7.67500969505334e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0002484710629317558</v>
+        <v>0.2482282313408993</v>
       </c>
       <c r="E35" t="n">
-        <v>0.991313756423016</v>
+        <v>0.5247602226844862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0001438903745093672</v>
+        <v>0.01738546448093961</v>
       </c>
       <c r="G35" t="n">
-        <v>0.991313756423016</v>
+        <v>0.5247602226844862</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -7701,26 +6681,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_12.fasta</t>
+          <t>label_UMGS176_10.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2684316820609928</v>
+        <v>0.01937960107640166</v>
       </c>
       <c r="C36" t="n">
-        <v>1.416765749931147e-13</v>
+        <v>2.219957238449643e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09609305867952336</v>
+        <v>0.001609308767854552</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5191411435706903</v>
+        <v>0.9790110901556993</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1163341156886519</v>
+        <v>2.219957238449643e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5191411435706903</v>
+        <v>0.9790110901556993</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -7731,26 +6711,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_18.fasta</t>
+          <t>label_UMGS176_20.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08559512294800824</v>
+        <v>0.01100239716297576</v>
       </c>
       <c r="C37" t="n">
-        <v>2.218930756415032e-14</v>
+        <v>2.219847026480141e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001693960143126843</v>
+        <v>0.001342738589850244</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9126317218253699</v>
+        <v>0.9876548642471296</v>
       </c>
       <c r="F37" t="n">
-        <v>7.919508347282201e-05</v>
+        <v>2.219847026480141e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9126317218253699</v>
+        <v>0.9876548642471296</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -7761,26 +6741,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_26.fasta</t>
+          <t>label_UMGS176_22.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0757543990998281</v>
+        <v>0.03568737547114414</v>
       </c>
       <c r="C38" t="n">
-        <v>2.220099889906515e-14</v>
+        <v>2.220476398270368e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005141592434084807</v>
+        <v>0.01556685447622276</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9164107088193251</v>
+        <v>0.9487457700525888</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00269329964673991</v>
+        <v>2.220476398270368e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9164107088193251</v>
+        <v>0.9487457700525888</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -7791,26 +6771,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_3.fasta</t>
+          <t>label_UMGS176_23.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03306721639396697</v>
+        <v>0.03284147614055867</v>
       </c>
       <c r="C39" t="n">
-        <v>2.654276745119179e-14</v>
+        <v>2.22032469884293e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002425399158796827</v>
+        <v>0.01916619010790692</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9474928631719618</v>
+        <v>0.9479923337514899</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01701452127524785</v>
+        <v>2.22032469884293e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9474928631719618</v>
+        <v>0.9479923337514899</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -7821,26 +6801,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_30.fasta</t>
+          <t>label_UMGS176_27.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01720388055423058</v>
+        <v>0.06457373312320668</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220835177459181e-14</v>
+        <v>4.732770164369348e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01259698000569062</v>
+        <v>0.01846432803338991</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9701873449568689</v>
+        <v>0.9169619388433088</v>
       </c>
       <c r="F40" t="n">
-        <v>1.179448318767688e-05</v>
+        <v>4.732770164369348e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9701873449568689</v>
+        <v>0.9169619388433088</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -7851,26 +6831,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_32.fasta</t>
+          <t>label_UMGS176_33.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02516339696907539</v>
+        <v>0.03456289563794358</v>
       </c>
       <c r="C41" t="n">
-        <v>4.135059784684826e-14</v>
+        <v>2.841577475073909e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01049996096805374</v>
+        <v>0.02013249807530465</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9617127500114749</v>
+        <v>0.945304606286695</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002623892051354593</v>
+        <v>2.841577475073913e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9617127500114749</v>
+        <v>0.945304606286695</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -7881,26 +6861,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_35.fasta</t>
+          <t>label_UMGS176_39.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1541916875093738</v>
+        <v>0.0137467722783373</v>
       </c>
       <c r="C42" t="n">
-        <v>6.117762999955864e-14</v>
+        <v>2.220358921633909e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1079957790651783</v>
+        <v>0.0136261134432409</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7339685476534096</v>
+        <v>0.9726271142783774</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003843985771977185</v>
+        <v>2.220358921633909e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7339685476534096</v>
+        <v>0.9726271142783774</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -7911,268 +6891,28 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS176_36.fasta</t>
+          <t>label_UMGS176_41.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2096260814935981</v>
+        <v>0.4373272220848424</v>
       </c>
       <c r="C43" t="n">
-        <v>7.67500969505334e-14</v>
+        <v>2.421633854067792e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2482282313408993</v>
+        <v>0.2192391694268943</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5247602226844862</v>
+        <v>0.3434336084877791</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01738546448093961</v>
+        <v>2.421633854067795e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5247602226844862</v>
+        <v>0.4373272220848424</v>
       </c>
       <c r="H43" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_10.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.01937960107640166</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.219957238449643e-14</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.001609308767854552</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.9790110901556993</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.219957238449643e-14</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.9790110901556993</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_20.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.01100239716297576</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.219847026480141e-14</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.001342738589850244</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.9876548642471296</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.219847026480141e-14</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.9876548642471296</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_22.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.03568737547114414</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.220476398270368e-14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.01556685447622276</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.9487457700525888</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.220476398270368e-14</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.9487457700525888</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_23.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.03284147614055867</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.22032469884293e-14</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.01916619010790692</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.9479923337514899</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.22032469884293e-14</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9479923337514899</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_27.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.06457373312320668</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.732770164369348e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.01846432803338991</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9169619388433088</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4.732770164369348e-14</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.9169619388433088</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_33.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.03456289563794358</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.841577475073909e-14</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.02013249807530465</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.945304606286695</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.841577475073913e-14</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.945304606286695</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_39.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0137467722783373</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.220358921633909e-14</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.0136261134432409</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9726271142783774</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.220358921633909e-14</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.9726271142783774</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900539835</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS176_41.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.4373272220848424</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.421633854067792e-13</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2192391694268943</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.3434336084877791</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.421633854067795e-13</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.4373272220848424</v>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D bicirculans</t>
         </is>
@@ -8189,7 +6929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8392,26 +7132,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_12.fasta</t>
+          <t>label_UMGS536_18.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00950112400978626</v>
+        <v>0.210101385359089</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220884380197166e-14</v>
+        <v>3.639147918919604e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01370792902416303</v>
+        <v>0.07575733536484031</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001157660865369621</v>
+        <v>0.00167656298365808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9756332861006588</v>
+        <v>0.7124647162923763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9756332861006588</v>
+        <v>0.7124647162923763</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -8422,56 +7162,56 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_16.fasta</t>
+          <t>label_UMGS536_19.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01976959847663485</v>
+        <v>0.3178468790056532</v>
       </c>
       <c r="C8" t="n">
-        <v>2.223521010362493e-14</v>
+        <v>0.1863693039229816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005591016647347171</v>
+        <v>0.3732029161761471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03487688322667276</v>
+        <v>8.686098990054182e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.939762501649323</v>
+        <v>0.122572214796228</v>
       </c>
       <c r="G8" t="n">
-        <v>0.939762501649323</v>
+        <v>0.3732029161761471</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900543145</t>
+          <t>s__Ruminococcus_D sp900539095</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_17.fasta</t>
+          <t>label_UMGS536_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01839857268201152</v>
+        <v>0.02725542329362083</v>
       </c>
       <c r="C9" t="n">
-        <v>2.222710337217843e-14</v>
+        <v>2.222798843529227e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03762034281092611</v>
+        <v>0.04724089546097193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001675898957349875</v>
+        <v>0.002836731007940958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9423051855496903</v>
+        <v>0.9226669502374441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9423051855496903</v>
+        <v>0.9226669502374441</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -8482,26 +7222,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_2.fasta</t>
+          <t>label_UMGS536_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003058718578307809</v>
+        <v>0.0145047445151646</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220320229454369e-14</v>
+        <v>2.220442236027651e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006078393800457162</v>
+        <v>0.0063871864721768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001099089738272835</v>
+        <v>0.0005162734762351408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.98976379788294</v>
+        <v>0.9785917955364014</v>
       </c>
       <c r="G10" t="n">
-        <v>0.98976379788294</v>
+        <v>0.9785917955364014</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -8512,26 +7252,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_18.fasta</t>
+          <t>label_UMGS536_15.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.210101385359089</v>
+        <v>0.03273033234506075</v>
       </c>
       <c r="C11" t="n">
-        <v>3.639147918919604e-14</v>
+        <v>2.219849130858114e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07575733536484031</v>
+        <v>0.006927732082490768</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00167656298365808</v>
+        <v>0.0003028737490371979</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7124647162923763</v>
+        <v>0.9600390618233891</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7124647162923763</v>
+        <v>0.9600390618233891</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -8542,56 +7282,56 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_19.fasta</t>
+          <t>label_UMGS536_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3178468790056532</v>
+        <v>0.01449835144960455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1863693039229816</v>
+        <v>2.220466685112676e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3732029161761471</v>
+        <v>0.006638641298073866</v>
       </c>
       <c r="E12" t="n">
-        <v>8.686098990054182e-06</v>
+        <v>0.0007642193008604747</v>
       </c>
       <c r="F12" t="n">
-        <v>0.122572214796228</v>
+        <v>0.9780987879514389</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3732029161761471</v>
+        <v>0.9780987879514389</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900539095</t>
+          <t>s__Ruminococcus_D sp900543145</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_9.fasta</t>
+          <t>label_UMGS536_5.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02725542329362083</v>
+        <v>0.01638167165413068</v>
       </c>
       <c r="C13" t="n">
-        <v>2.222798843529227e-14</v>
+        <v>2.220377190805206e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04724089546097193</v>
+        <v>0.00571461679942682</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002836731007940958</v>
+        <v>0.0009627964161970891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9226669502374441</v>
+        <v>0.9769409151302232</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9226669502374441</v>
+        <v>0.9769409151302232</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -8602,26 +7342,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_1.fasta</t>
+          <t>label_UMGS536_7.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0145047445151646</v>
+        <v>0.01118589839928077</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220442236027651e-14</v>
+        <v>2.220962091377415e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0063871864721768</v>
+        <v>0.01558207484941175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005162734762351408</v>
+        <v>0.0005380601534702788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9785917955364014</v>
+        <v>0.9726939665978149</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9785917955364014</v>
+        <v>0.9726939665978149</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -8632,26 +7372,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_15.fasta</t>
+          <t>label_UMGS536_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03273033234506075</v>
+        <v>0.004308779424385388</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219849130858114e-14</v>
+        <v>2.220338649006255e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006927732082490768</v>
+        <v>0.009521461844282165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003028737490371979</v>
+        <v>0.0006422658842895632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9600390618233891</v>
+        <v>0.9855274928470206</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9600390618233891</v>
+        <v>0.9855274928470206</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -8662,26 +7402,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_4.fasta</t>
+          <t>label_UMGS536_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01449835144960455</v>
+        <v>0.001383699518818769</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220466685112676e-14</v>
+        <v>2.218867879012721e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006638641298073866</v>
+        <v>0.03217958668256844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0007642193008604747</v>
+        <v>9.756526983059352e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9780987879514389</v>
+        <v>0.96633914852876</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9780987879514389</v>
+        <v>0.96633914852876</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -8692,56 +7432,56 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_5.fasta</t>
+          <t>label_UMGS536_20.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01638167165413068</v>
+        <v>0.6610325783705679</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220377190805206e-14</v>
+        <v>4.055911251431429e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00571461679942682</v>
+        <v>0.0734328566756639</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0009627964161970891</v>
+        <v>0.004161316184014958</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9769409151302232</v>
+        <v>0.2613732487697127</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9769409151302232</v>
+        <v>0.6610325783705679</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D sp900543145</t>
+          <t>s__Ruminococcus_D bicirculans</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_7.fasta</t>
+          <t>label_UMGS536_8.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01118589839928077</v>
+        <v>0.001446412944357181</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220962091377415e-14</v>
+        <v>2.219925821241798e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01558207484941175</v>
+        <v>0.008838835102424164</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005380601534702788</v>
+        <v>0.0002299151970229487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9726939665978149</v>
+        <v>0.9894848367561734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9726939665978149</v>
+        <v>0.9894848367561734</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -8752,26 +7492,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_11.fasta</t>
+          <t>label_UMGS536_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004308779424385388</v>
+        <v>0.0252931288370934</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220338649006255e-14</v>
+        <v>2.222160251828903e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009521461844282165</v>
+        <v>0.002629557550887854</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0006422658842895632</v>
+        <v>0.01649821397064685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9855274928470206</v>
+        <v>0.9555790996413497</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9855274928470206</v>
+        <v>0.9555790996413497</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -8782,26 +7522,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_14.fasta</t>
+          <t>label_UMGS536_10.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001383699518818769</v>
+        <v>0.02251173243328038</v>
       </c>
       <c r="C20" t="n">
-        <v>2.218867879012721e-14</v>
+        <v>2.222330889544023e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03217958668256844</v>
+        <v>0.02090346640572928</v>
       </c>
       <c r="E20" t="n">
-        <v>9.756526983059352e-05</v>
+        <v>0.0009054874601465407</v>
       </c>
       <c r="F20" t="n">
-        <v>0.96633914852876</v>
+        <v>0.9556793137008216</v>
       </c>
       <c r="G20" t="n">
-        <v>0.96633914852876</v>
+        <v>0.9556793137008216</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -8812,56 +7552,56 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_20.fasta</t>
+          <t>label_UMGS536_13.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6610325783705679</v>
+        <v>0.1236911315760351</v>
       </c>
       <c r="C21" t="n">
-        <v>4.055911251431429e-14</v>
+        <v>2.219458400419225e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0734328566756639</v>
+        <v>0.006691255548826393</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004161316184014958</v>
+        <v>0.003037534996338243</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2613732487697127</v>
+        <v>0.866580077878778</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6610325783705679</v>
+        <v>0.866580077878778</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_D bicirculans</t>
+          <t>s__Ruminococcus_D sp900543145</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_8.fasta</t>
+          <t>label_UMGS536_3.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001446412944357181</v>
+        <v>0.08329465546257711</v>
       </c>
       <c r="C22" t="n">
-        <v>2.219925821241798e-14</v>
+        <v>2.218779978008198e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008838835102424164</v>
+        <v>0.005780055384430087</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002299151970229487</v>
+        <v>0.0003949840390866066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9894848367561734</v>
+        <v>0.910530305113884</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9894848367561734</v>
+        <v>0.910530305113884</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -8872,148 +7612,28 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS536_0.fasta</t>
+          <t>label_UMGS536_6.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0252931288370934</v>
+        <v>0.03813415072953953</v>
       </c>
       <c r="C23" t="n">
-        <v>2.222160251828903e-14</v>
+        <v>2.220296700941306e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002629557550887854</v>
+        <v>0.008803504263913096</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01649821397064685</v>
+        <v>0.00112666773721177</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9555790996413497</v>
+        <v>0.9519356772693134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9555790996413497</v>
+        <v>0.9519356772693134</v>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900543145</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS536_10.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.02251173243328038</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.222330889544023e-14</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.02090346640572928</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0009054874601465407</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9556793137008216</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9556793137008216</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900543145</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS536_13.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.1236911315760351</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.219458400419225e-14</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.006691255548826393</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.003037534996338243</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.866580077878778</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.866580077878778</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900543145</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS536_3.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.08329465546257711</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.218779978008198e-14</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.005780055384430087</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0003949840390866066</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.910530305113884</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.910530305113884</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_D sp900543145</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS536_6.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.03813415072953953</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.220296700941306e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.008803504263913096</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.00112666773721177</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9519356772693134</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9519356772693134</v>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D sp900543145</t>
         </is>
